--- a/mySampleSiteGolferData.xlsx
+++ b/mySampleSiteGolferData.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomaej\Desktop\Projects\mySampleSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D986CDE7-AF53-49CD-9DD5-56D6861D38BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155FA61D-2386-4528-9EAA-40820D77A086}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27360" yWindow="1440" windowWidth="21600" windowHeight="11325" activeTab="1" xr2:uid="{7A86AC8A-C46A-4850-ADBA-F4DA3921C8C2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{7A86AC8A-C46A-4850-ADBA-F4DA3921C8C2}"/>
   </bookViews>
   <sheets>
     <sheet name="People" sheetId="1" r:id="rId1"/>
     <sheet name="Scores" sheetId="2" r:id="rId2"/>
+    <sheet name="Design Notes" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="107">
   <si>
     <t>last_name</t>
   </si>
@@ -268,14 +269,109 @@
   </si>
   <si>
     <t>email</t>
+  </si>
+  <si>
+    <t>LEAGUE STANDINGS</t>
+  </si>
+  <si>
+    <t>League Schedule</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Record</t>
+  </si>
+  <si>
+    <t>optional stats</t>
+  </si>
+  <si>
+    <t>next week opp</t>
+  </si>
+  <si>
+    <t>thru week</t>
+  </si>
+  <si>
+    <t>secret stats</t>
+  </si>
+  <si>
+    <t>top point man</t>
+  </si>
+  <si>
+    <t>bottom point man</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Team 1</t>
+  </si>
+  <si>
+    <t>0-0</t>
+  </si>
+  <si>
+    <t>per 2some handicap power rating</t>
+  </si>
+  <si>
+    <t>Team 5</t>
+  </si>
+  <si>
+    <t>Team 4</t>
+  </si>
+  <si>
+    <t>Team 3</t>
+  </si>
+  <si>
+    <t>Team 2</t>
+  </si>
+  <si>
+    <t>Team 6</t>
+  </si>
+  <si>
+    <t>Teams - Links to expanded team stats</t>
+  </si>
+  <si>
+    <t>Team 7</t>
+  </si>
+  <si>
+    <t>Bye</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -303,11 +399,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -323,6 +426,613 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDA20CD2-28D8-4277-999E-5669F42F28FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11376660" y="2838450"/>
+          <a:ext cx="590550" cy="721995"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C34FB61B-33C8-49B3-83CC-56A4762F3429}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7FC01AF1-7578-4441-8F4E-008D6AA4BB99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11386185" y="3377565"/>
+          <a:ext cx="600075" cy="558165"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D44F964F-87F4-4258-B5B0-C9E8EC6AA96F}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3012C40E-7C4F-49BA-9231-7F8CCC6F3266}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11376660" y="3185160"/>
+          <a:ext cx="609600" cy="741045"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98691C92-CB8F-4D0E-9146-6E113A4EDD5F}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{23F065D4-378D-4CA5-B71B-255E6F120798}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11386185" y="3368040"/>
+          <a:ext cx="571500" cy="192405"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57F998A9-FD3C-4C6E-93D8-39833CE166DE}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8E34F43C-93D5-49DB-B5D1-34AAB386F398}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11367135" y="2828925"/>
+          <a:ext cx="600075" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C87907A-FA3C-4C5B-9943-64B409B2274C}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{AEF30455-C0FD-46F3-8B22-83AF15000283}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11386185" y="3030855"/>
+          <a:ext cx="609600" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1360EC1-76A2-426B-A19A-1AFF5E8B325E}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5FD97314-E1F6-446C-8D9C-C8AD7C9F6CEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11376660" y="3204210"/>
+          <a:ext cx="619125" cy="384810"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E13A721-D29C-432B-9C44-521C7230C9B1}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B181D930-96B1-4E6D-98F0-15CF226BF4FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11367135" y="3358515"/>
+          <a:ext cx="619125" cy="384810"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B81A4DF-F72D-4CC5-8840-1B956962D77D}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3E8D857B-DDEA-46AC-8931-C0F94805D8B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11405235" y="2847975"/>
+          <a:ext cx="581025" cy="1059180"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C59B06B0-8FE1-4E0C-8788-1D6BB2C48E12}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5270A823-DB7D-45F9-9D60-965B4772144B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11357610" y="3021330"/>
+          <a:ext cx="638175" cy="567690"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75370D94-B715-49CA-A909-560FFC8A51B5}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2FC819BB-9C53-4ABF-922E-072D41B7A4DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11367135" y="3194685"/>
+          <a:ext cx="638175" cy="567690"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1221,7 +1931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{039B252A-4CB3-4F4B-87DB-C692D725C823}">
   <dimension ref="A1:A41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1435,4 +2145,445 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954FA937-3D58-4709-976D-71A145949764}">
+  <dimension ref="A1:Z22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="M1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="M3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="M5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="W8" s="1"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y9" s="1"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="O16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="M1:Z1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/mySampleSiteGolferData.xlsx
+++ b/mySampleSiteGolferData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomaej\Desktop\Projects\mySampleSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155FA61D-2386-4528-9EAA-40820D77A086}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB8429E-ED1E-42F4-9DD8-90C67071FE3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{7A86AC8A-C46A-4850-ADBA-F4DA3921C8C2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="116">
   <si>
     <t>last_name</t>
   </si>
@@ -356,13 +356,40 @@
   </si>
   <si>
     <t>Bye</t>
+  </si>
+  <si>
+    <t>Last Week's Results</t>
+  </si>
+  <si>
+    <t>week1</t>
+  </si>
+  <si>
+    <t>week2</t>
+  </si>
+  <si>
+    <t>week3</t>
+  </si>
+  <si>
+    <t>week4</t>
+  </si>
+  <si>
+    <t>week5</t>
+  </si>
+  <si>
+    <t>week6</t>
+  </si>
+  <si>
+    <t>Bodoni MD Black</t>
+  </si>
+  <si>
+    <t>logo ideas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,6 +405,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MoolBoran"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -387,7 +420,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -395,11 +428,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -407,10 +520,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,15 +605,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -484,15 +657,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -539,15 +712,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -594,15 +767,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -649,15 +822,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -704,15 +877,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -759,15 +932,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -814,15 +987,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -869,15 +1042,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -924,15 +1097,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -979,15 +1152,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1334,8 +1507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{241A1EB0-0A74-43CF-AD7C-C2D5CDE6A973}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A41" sqref="A1:A41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1929,217 +2102,1195 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{039B252A-4CB3-4F4B-87DB-C692D725C823}">
-  <dimension ref="A1:A41"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <f ca="1">RANDBETWEEN(35, 47)</f>
+        <v>43</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:G17" ca="1" si="0">RANDBETWEEN(35, 47)</f>
+        <v>36</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <f t="shared" ref="B3:G41" ca="1" si="1">RANDBETWEEN(35, 47)</f>
+        <v>41</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <f t="shared" ca="1" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <f t="shared" ca="1" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <f t="shared" ca="1" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <f t="shared" ca="1" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <f t="shared" ca="1" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <f t="shared" ca="1" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ca="1" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <f t="shared" ca="1" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <f t="shared" ca="1" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <f t="shared" ca="1" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ca="1" si="1"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <f t="shared" ca="1" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ca="1" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ca="1" si="1"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ca="1" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ca="1" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ca="1" si="1"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <f t="shared" ca="1" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ca="1" si="1"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <f t="shared" ca="1" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ca="1" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ca="1" si="1"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <f t="shared" ca="1" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ca="1" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <f t="shared" ca="1" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ca="1" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <f t="shared" ca="1" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ca="1" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <f t="shared" ca="1" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ca="1" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ca="1" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <f t="shared" ca="1" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ca="1" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ca="1" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="G35">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ca="1" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ca="1" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ca="1" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="G37">
+        <f t="shared" ca="1" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <f t="shared" ca="1" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ca="1" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ca="1" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="G38">
+        <f t="shared" ca="1" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <f t="shared" ca="1" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <f t="shared" ca="1" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ca="1" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="G40">
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ca="1" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ca="1" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ca="1" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="G41">
+        <f t="shared" ca="1" si="1"/>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2149,441 +3300,532 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954FA937-3D58-4709-976D-71A145949764}">
-  <dimension ref="A1:Z22"/>
+  <dimension ref="B1:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B1" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="M1" s="2" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="7"/>
+      <c r="N1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+    </row>
+    <row r="2" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B2" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="4"/>
+      <c r="P2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="4"/>
+      <c r="T2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="4"/>
+      <c r="V2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="4"/>
+      <c r="X2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2" t="s">
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="Z2" s="2"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="AA2" s="4"/>
+    </row>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B3" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="20">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="M3" s="1" t="s">
+      <c r="L3" s="4"/>
+      <c r="N3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B4" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4" s="20">
         <v>0</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B5" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="20">
         <v>0</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="M5" s="1" t="s">
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="N5" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B6" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C6" s="20">
         <v>0</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B7" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C7" s="20">
         <v>0</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="U7" s="1"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B8" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="1">
+      <c r="C8" s="20">
         <v>0</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="W8" s="1"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="X8" s="1"/>
+    </row>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B9" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C9" s="20">
         <v>0</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="Y9" s="1"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="Z9" s="1"/>
+    </row>
+    <row r="10" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="1">
+      <c r="C10" s="23">
         <v>0</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="24" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="O16" s="1" t="s">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B16" s="8">
+        <v>43955</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="G16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="G17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B18" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="C18" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="P18" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="17" spans="15:17" x14ac:dyDescent="0.3">
-      <c r="O17" s="1" t="s">
+      <c r="R18" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B19" s="12">
+        <v>0</v>
+      </c>
+      <c r="C19" s="11">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="R19" s="2"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B20" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="C20" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="P20" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="18" spans="15:17" x14ac:dyDescent="0.3">
-      <c r="O18" s="1" t="s">
+      <c r="R20" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B21" s="12">
+        <v>0</v>
+      </c>
+      <c r="C21" s="11">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B22" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="C22" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="P22" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="19" spans="15:17" x14ac:dyDescent="0.3">
-      <c r="O19" s="1" t="s">
+      <c r="R22" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B23" s="12">
+        <v>0</v>
+      </c>
+      <c r="C23" s="11">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="R23" s="2"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B24" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="Q19" s="1" t="s">
+      <c r="C24" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="P24" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="15:17" x14ac:dyDescent="0.3">
-      <c r="O20" s="1" t="s">
+      <c r="R24" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="13">
+        <v>0</v>
+      </c>
+      <c r="C25" s="14">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="R25" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="15:17" x14ac:dyDescent="0.3">
-      <c r="O21" s="1" t="s">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="P26" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="Q21" s="1" t="s">
+      <c r="R26" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="15:17" x14ac:dyDescent="0.3">
-      <c r="O22" s="1" t="s">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="P27" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="R27" s="1" t="s">
         <v>105</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="M1:Z1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
+  <mergeCells count="13">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="N1:AA1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/mySampleSiteGolferData.xlsx
+++ b/mySampleSiteGolferData.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomaej\Desktop\Projects\mySampleSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB8429E-ED1E-42F4-9DD8-90C67071FE3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAB9691-CCD7-431A-AD44-31A1B8402131}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{7A86AC8A-C46A-4850-ADBA-F4DA3921C8C2}"/>
+    <workbookView xWindow="768" yWindow="636" windowWidth="21600" windowHeight="11328" activeTab="1" xr2:uid="{7A86AC8A-C46A-4850-ADBA-F4DA3921C8C2}"/>
   </bookViews>
   <sheets>
     <sheet name="People" sheetId="1" r:id="rId1"/>
     <sheet name="Scores" sheetId="2" r:id="rId2"/>
-    <sheet name="Design Notes" sheetId="3" r:id="rId3"/>
+    <sheet name="Teams" sheetId="4" r:id="rId3"/>
+    <sheet name="Design Notes" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="123">
   <si>
     <t>last_name</t>
   </si>
@@ -268,9 +269,6 @@
     <t>phone</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>LEAGUE STANDINGS</t>
   </si>
   <si>
@@ -361,28 +359,52 @@
     <t>Last Week's Results</t>
   </si>
   <si>
-    <t>week1</t>
-  </si>
-  <si>
-    <t>week2</t>
-  </si>
-  <si>
-    <t>week3</t>
-  </si>
-  <si>
-    <t>week4</t>
-  </si>
-  <si>
-    <t>week5</t>
-  </si>
-  <si>
-    <t>week6</t>
-  </si>
-  <si>
     <t>Bodoni MD Black</t>
   </si>
   <si>
     <t>logo ideas</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>Juicers</t>
+  </si>
+  <si>
+    <t>Other Guys</t>
+  </si>
+  <si>
+    <t>Lobbers</t>
+  </si>
+  <si>
+    <t>Green Beans</t>
+  </si>
+  <si>
+    <t>Golf Dudes</t>
+  </si>
+  <si>
+    <t>Smell Ya Later</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>Front</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>handicap</t>
   </si>
 </sst>
 </file>
@@ -512,7 +534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -522,21 +544,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -552,9 +559,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -584,6 +588,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1505,10 +1531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{241A1EB0-0A74-43CF-AD7C-C2D5CDE6A973}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1516,9 +1542,10 @@
     <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1532,10 +1559,13 @@
         <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="F1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1548,8 +1578,11 @@
       <c r="D2">
         <v>6187872576</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1562,8 +1595,11 @@
       <c r="D3">
         <v>6189167103</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1576,8 +1612,11 @@
       <c r="D4">
         <v>6185505921</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1590,8 +1629,11 @@
       <c r="D5">
         <v>6188199165</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1604,8 +1646,11 @@
       <c r="D6">
         <v>6187739907</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1618,8 +1663,11 @@
       <c r="D7">
         <v>6188468718</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1632,8 +1680,11 @@
       <c r="D8">
         <v>6188535203</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1646,8 +1697,11 @@
       <c r="D9">
         <v>6180518764</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1660,8 +1714,11 @@
       <c r="D10">
         <v>6188372342</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1674,8 +1731,11 @@
       <c r="D11">
         <v>6184759197</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1688,8 +1748,11 @@
       <c r="D12">
         <v>6188951197</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1702,8 +1765,11 @@
       <c r="D13">
         <v>6186498140</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1716,8 +1782,11 @@
       <c r="D14">
         <v>6188083190</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1730,8 +1799,11 @@
       <c r="D15">
         <v>6187455149</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1744,8 +1816,11 @@
       <c r="D16">
         <v>6186769880</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1758,8 +1833,11 @@
       <c r="D17">
         <v>6184400907</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1772,8 +1850,11 @@
       <c r="D18">
         <v>6181586360</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1786,8 +1867,11 @@
       <c r="D19">
         <v>6188685527</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1800,8 +1884,11 @@
       <c r="D20">
         <v>6182716196</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1814,8 +1901,11 @@
       <c r="D21">
         <v>6188940604</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1828,8 +1918,11 @@
       <c r="D22">
         <v>6181049214</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1842,8 +1935,11 @@
       <c r="D23">
         <v>6181862215</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1856,8 +1952,11 @@
       <c r="D24">
         <v>6185225097</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1870,8 +1969,11 @@
       <c r="D25">
         <v>6187206089</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1884,8 +1986,11 @@
       <c r="D26">
         <v>6189405882</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1898,8 +2003,11 @@
       <c r="D27">
         <v>6186272145</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1912,8 +2020,11 @@
       <c r="D28">
         <v>6188193472</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1926,8 +2037,11 @@
       <c r="D29">
         <v>6182146333</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="D30">
         <v>6184039903</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1954,8 +2071,11 @@
       <c r="D31">
         <v>6180503055</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1968,8 +2088,11 @@
       <c r="D32">
         <v>6181311102</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1982,8 +2105,11 @@
       <c r="D33">
         <v>6181366153</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1996,8 +2122,11 @@
       <c r="D34">
         <v>6188974155</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2010,8 +2139,11 @@
       <c r="D35">
         <v>6188208599</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2024,8 +2156,11 @@
       <c r="D36">
         <v>6183803531</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2038,8 +2173,11 @@
       <c r="D37">
         <v>6188258267</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2052,8 +2190,11 @@
       <c r="D38">
         <v>6183454656</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2066,8 +2207,11 @@
       <c r="D39">
         <v>6188701924</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2080,8 +2224,11 @@
       <c r="D40">
         <v>6185421386</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2093,6 +2240,9 @@
       </c>
       <c r="D41">
         <v>6184176745</v>
+      </c>
+      <c r="E41" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2102,1195 +2252,4226 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{039B252A-4CB3-4F4B-87DB-C692D725C823}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:D281"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2">
-        <f ca="1">RANDBETWEEN(35, 47)</f>
-        <v>43</v>
-      </c>
-      <c r="C2">
-        <f t="shared" ref="C2:G17" ca="1" si="0">RANDBETWEEN(35, 47)</f>
-        <v>36</v>
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>120</v>
       </c>
       <c r="D2">
+        <f ca="1">RANDBETWEEN(36, 50)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D66" ca="1" si="0">RANDBETWEEN(36, 50)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="F2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7">
         <f t="shared" ca="1" si="0"/>
         <v>47</v>
       </c>
-      <c r="G2">
-        <f t="shared" ca="1" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <f t="shared" ref="B3:G41" ca="1" si="1">RANDBETWEEN(35, 47)</f>
-        <v>41</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ca="1" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ca="1" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ca="1" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ca="1" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ca="1" si="0"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <f t="shared" ca="1" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="C4">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8">
         <f t="shared" ca="1" si="0"/>
         <v>45</v>
       </c>
-      <c r="D4">
-        <f t="shared" ca="1" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ca="1" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="F4">
-        <f t="shared" ca="1" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ca="1" si="0"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <f t="shared" ca="1" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ca="1" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ca="1" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ca="1" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ca="1" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ca="1" si="0"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <f t="shared" ca="1" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ca="1" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ca="1" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ca="1" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="F6">
-        <f t="shared" ca="1" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="G6">
-        <f t="shared" ca="1" si="0"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <f t="shared" ca="1" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="C7">
-        <f t="shared" ca="1" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ca="1" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="E7">
-        <f t="shared" ca="1" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="F7">
-        <f t="shared" ca="1" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="G7">
-        <f t="shared" ca="1" si="0"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <f t="shared" ca="1" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="C8">
-        <f t="shared" ca="1" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="D8">
-        <f t="shared" ca="1" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="E8">
-        <f t="shared" ca="1" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="F8">
-        <f t="shared" ca="1" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="G8">
-        <f t="shared" ca="1" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9">
-        <f t="shared" ca="1" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="C9">
-        <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>120</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
         <v>45</v>
       </c>
-      <c r="E9">
-        <f t="shared" ca="1" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="F9">
-        <f t="shared" ca="1" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="G9">
-        <f t="shared" ca="1" si="0"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10">
-        <f t="shared" ca="1" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="C10">
-        <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="E10">
-        <f t="shared" ca="1" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="F10">
-        <f t="shared" ca="1" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="G10">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11">
         <f t="shared" ca="1" si="0"/>
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <f t="shared" ca="1" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="C11">
-        <f t="shared" ca="1" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="D11">
-        <f t="shared" ca="1" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="E11">
-        <f t="shared" ca="1" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="F11">
-        <f t="shared" ca="1" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="G11">
-        <f t="shared" ca="1" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12">
-        <f t="shared" ca="1" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="C12">
-        <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>120</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="E12">
-        <f t="shared" ca="1" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="F12">
-        <f t="shared" ca="1" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="G12">
-        <f t="shared" ca="1" si="0"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13">
-        <f t="shared" ca="1" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="C13">
-        <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>120</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
         <v>41</v>
       </c>
-      <c r="E13">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17">
         <f t="shared" ca="1" si="0"/>
         <v>42</v>
       </c>
-      <c r="F13">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29">
         <f t="shared" ca="1" si="0"/>
         <v>43</v>
       </c>
-      <c r="G13">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30">
         <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>121</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>4</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>5</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>121</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>7</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>121</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>8</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>121</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>9</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>10</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <v>11</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>121</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>12</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>121</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>14</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
+        <v>15</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>121</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ca="1" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
+        <v>16</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>121</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
+        <v>17</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>121</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
+        <v>18</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>121</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
+        <v>19</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>121</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ca="1" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="4">
+        <v>20</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61" t="s">
+        <v>121</v>
+      </c>
+      <c r="D61">
+        <f t="shared" ca="1" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="4">
+        <v>21</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>121</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="4">
+        <v>22</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>121</v>
+      </c>
+      <c r="D63">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="4">
+        <v>23</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>121</v>
+      </c>
+      <c r="D64">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="4">
+        <v>24</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>121</v>
+      </c>
+      <c r="D65">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="4">
+        <v>25</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>121</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="4">
+        <v>26</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67" t="s">
+        <v>121</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D130" ca="1" si="1">RANDBETWEEN(36, 50)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="4">
+        <v>27</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ca="1" si="1"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="4">
+        <v>28</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69" t="s">
+        <v>121</v>
+      </c>
+      <c r="D69">
+        <f t="shared" ca="1" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="4">
+        <v>29</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>121</v>
+      </c>
+      <c r="D70">
+        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="4">
+        <v>30</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>121</v>
+      </c>
+      <c r="D71">
+        <f t="shared" ca="1" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="4">
+        <v>31</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>121</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="4">
+        <v>32</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>121</v>
+      </c>
+      <c r="D73">
         <f t="shared" ca="1" si="1"/>
         <v>42</v>
       </c>
-      <c r="C14">
-        <f t="shared" ca="1" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="D14">
-        <f t="shared" ca="1" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="E14">
-        <f t="shared" ca="1" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="F14">
-        <f t="shared" ca="1" si="0"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="4">
+        <v>33</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74" t="s">
+        <v>121</v>
+      </c>
+      <c r="D74">
+        <f t="shared" ca="1" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="4">
+        <v>34</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75" t="s">
+        <v>121</v>
+      </c>
+      <c r="D75">
+        <f t="shared" ca="1" si="1"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="4">
+        <v>35</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76" t="s">
+        <v>121</v>
+      </c>
+      <c r="D76">
+        <f t="shared" ca="1" si="1"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="4">
         <v>36</v>
       </c>
-      <c r="G14">
-        <f t="shared" ca="1" si="0"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15">
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>121</v>
+      </c>
+      <c r="D77">
         <f t="shared" ca="1" si="1"/>
         <v>45</v>
       </c>
-      <c r="C15">
-        <f t="shared" ca="1" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="D15">
-        <f t="shared" ca="1" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="E15">
-        <f t="shared" ca="1" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="F15">
-        <f t="shared" ca="1" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="G15">
-        <f t="shared" ca="1" si="0"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <f t="shared" ca="1" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="C16">
-        <f t="shared" ca="1" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="D16">
-        <f t="shared" ca="1" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="E16">
-        <f t="shared" ca="1" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="F16">
-        <f t="shared" ca="1" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="G16">
-        <f t="shared" ca="1" si="0"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="4">
+        <v>37</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78" t="s">
+        <v>121</v>
+      </c>
+      <c r="D78">
         <f t="shared" ca="1" si="1"/>
         <v>44</v>
       </c>
-      <c r="C17">
-        <f t="shared" ca="1" si="0"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="4">
+        <v>38</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79" t="s">
+        <v>121</v>
+      </c>
+      <c r="D79">
+        <f t="shared" ca="1" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="4">
         <v>39</v>
       </c>
-      <c r="D17">
-        <f t="shared" ca="1" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="E17">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80" t="s">
+        <v>121</v>
+      </c>
+      <c r="D80">
+        <f t="shared" ca="1" si="1"/>
         <v>36</v>
       </c>
-      <c r="F17">
-        <f t="shared" ca="1" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="G17">
-        <f t="shared" ca="1" si="0"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="4">
+        <v>40</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81" t="s">
+        <v>121</v>
+      </c>
+      <c r="D81">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="4">
+        <v>1</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
+        <v>120</v>
+      </c>
+      <c r="D82">
         <f t="shared" ca="1" si="1"/>
         <v>47</v>
       </c>
-      <c r="C18">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="4">
+        <v>2</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
+        <v>120</v>
+      </c>
+      <c r="D83">
+        <f t="shared" ca="1" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="4">
+        <v>3</v>
+      </c>
+      <c r="B84">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
+        <v>120</v>
+      </c>
+      <c r="D84">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="4">
+        <v>4</v>
+      </c>
+      <c r="B85">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
+        <v>120</v>
+      </c>
+      <c r="D85">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="4">
+        <v>5</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86" t="s">
+        <v>120</v>
+      </c>
+      <c r="D86">
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="4">
+        <v>6</v>
+      </c>
+      <c r="B87">
+        <v>3</v>
+      </c>
+      <c r="C87" t="s">
+        <v>120</v>
+      </c>
+      <c r="D87">
+        <f t="shared" ca="1" si="1"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="4">
+        <v>7</v>
+      </c>
+      <c r="B88">
+        <v>3</v>
+      </c>
+      <c r="C88" t="s">
+        <v>120</v>
+      </c>
+      <c r="D88">
         <f t="shared" ca="1" si="1"/>
         <v>43</v>
       </c>
-      <c r="D18">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="4">
+        <v>8</v>
+      </c>
+      <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="C89" t="s">
+        <v>120</v>
+      </c>
+      <c r="D89">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="4">
+        <v>9</v>
+      </c>
+      <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="C90" t="s">
+        <v>120</v>
+      </c>
+      <c r="D90">
+        <f t="shared" ca="1" si="1"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="4">
+        <v>10</v>
+      </c>
+      <c r="B91">
+        <v>3</v>
+      </c>
+      <c r="C91" t="s">
+        <v>120</v>
+      </c>
+      <c r="D91">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="4">
+        <v>11</v>
+      </c>
+      <c r="B92">
+        <v>3</v>
+      </c>
+      <c r="C92" t="s">
+        <v>120</v>
+      </c>
+      <c r="D92">
+        <f t="shared" ca="1" si="1"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="4">
+        <v>12</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="C93" t="s">
+        <v>120</v>
+      </c>
+      <c r="D93">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="4">
+        <v>13</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="C94" t="s">
+        <v>120</v>
+      </c>
+      <c r="D94">
+        <f t="shared" ca="1" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="4">
+        <v>14</v>
+      </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
+      <c r="C95" t="s">
+        <v>120</v>
+      </c>
+      <c r="D95">
+        <f t="shared" ca="1" si="1"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="4">
+        <v>15</v>
+      </c>
+      <c r="B96">
+        <v>3</v>
+      </c>
+      <c r="C96" t="s">
+        <v>120</v>
+      </c>
+      <c r="D96">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="4">
+        <v>16</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
+      </c>
+      <c r="C97" t="s">
+        <v>120</v>
+      </c>
+      <c r="D97">
+        <f t="shared" ca="1" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="4">
+        <v>17</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>120</v>
+      </c>
+      <c r="D98">
+        <f t="shared" ca="1" si="1"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="4">
+        <v>18</v>
+      </c>
+      <c r="B99">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
+        <v>120</v>
+      </c>
+      <c r="D99">
+        <f t="shared" ca="1" si="1"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="4">
+        <v>19</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
+        <v>120</v>
+      </c>
+      <c r="D100">
+        <f t="shared" ca="1" si="1"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="4">
+        <v>20</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="C101" t="s">
+        <v>120</v>
+      </c>
+      <c r="D101">
+        <f t="shared" ca="1" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="4">
+        <v>21</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+      <c r="C102" t="s">
+        <v>120</v>
+      </c>
+      <c r="D102">
+        <f t="shared" ca="1" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="4">
+        <v>22</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+      <c r="C103" t="s">
+        <v>120</v>
+      </c>
+      <c r="D103">
         <f t="shared" ca="1" si="1"/>
         <v>42</v>
       </c>
-      <c r="E18">
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="4">
+        <v>23</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="C104" t="s">
+        <v>120</v>
+      </c>
+      <c r="D104">
         <f t="shared" ca="1" si="1"/>
         <v>45</v>
       </c>
-      <c r="F18">
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="4">
+        <v>24</v>
+      </c>
+      <c r="B105">
+        <v>3</v>
+      </c>
+      <c r="C105" t="s">
+        <v>120</v>
+      </c>
+      <c r="D105">
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="4">
+        <v>25</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+      <c r="C106" t="s">
+        <v>120</v>
+      </c>
+      <c r="D106">
+        <f t="shared" ca="1" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="4">
+        <v>26</v>
+      </c>
+      <c r="B107">
+        <v>3</v>
+      </c>
+      <c r="C107" t="s">
+        <v>120</v>
+      </c>
+      <c r="D107">
+        <f t="shared" ca="1" si="1"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="4">
+        <v>27</v>
+      </c>
+      <c r="B108">
+        <v>3</v>
+      </c>
+      <c r="C108" t="s">
+        <v>120</v>
+      </c>
+      <c r="D108">
+        <f t="shared" ca="1" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="4">
+        <v>28</v>
+      </c>
+      <c r="B109">
+        <v>3</v>
+      </c>
+      <c r="C109" t="s">
+        <v>120</v>
+      </c>
+      <c r="D109">
+        <f t="shared" ca="1" si="1"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="4">
+        <v>29</v>
+      </c>
+      <c r="B110">
+        <v>3</v>
+      </c>
+      <c r="C110" t="s">
+        <v>120</v>
+      </c>
+      <c r="D110">
+        <f t="shared" ca="1" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="4">
+        <v>30</v>
+      </c>
+      <c r="B111">
+        <v>3</v>
+      </c>
+      <c r="C111" t="s">
+        <v>120</v>
+      </c>
+      <c r="D111">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="4">
+        <v>31</v>
+      </c>
+      <c r="B112">
+        <v>3</v>
+      </c>
+      <c r="C112" t="s">
+        <v>120</v>
+      </c>
+      <c r="D112">
+        <f t="shared" ca="1" si="1"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="4">
+        <v>32</v>
+      </c>
+      <c r="B113">
+        <v>3</v>
+      </c>
+      <c r="C113" t="s">
+        <v>120</v>
+      </c>
+      <c r="D113">
+        <f t="shared" ca="1" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="4">
+        <v>33</v>
+      </c>
+      <c r="B114">
+        <v>3</v>
+      </c>
+      <c r="C114" t="s">
+        <v>120</v>
+      </c>
+      <c r="D114">
+        <f t="shared" ca="1" si="1"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="4">
+        <v>34</v>
+      </c>
+      <c r="B115">
+        <v>3</v>
+      </c>
+      <c r="C115" t="s">
+        <v>120</v>
+      </c>
+      <c r="D115">
+        <f t="shared" ca="1" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="4">
+        <v>35</v>
+      </c>
+      <c r="B116">
+        <v>3</v>
+      </c>
+      <c r="C116" t="s">
+        <v>120</v>
+      </c>
+      <c r="D116">
+        <f t="shared" ca="1" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="4">
+        <v>36</v>
+      </c>
+      <c r="B117">
+        <v>3</v>
+      </c>
+      <c r="C117" t="s">
+        <v>120</v>
+      </c>
+      <c r="D117">
+        <f t="shared" ca="1" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="4">
+        <v>37</v>
+      </c>
+      <c r="B118">
+        <v>3</v>
+      </c>
+      <c r="C118" t="s">
+        <v>120</v>
+      </c>
+      <c r="D118">
+        <f t="shared" ca="1" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="4">
+        <v>38</v>
+      </c>
+      <c r="B119">
+        <v>3</v>
+      </c>
+      <c r="C119" t="s">
+        <v>120</v>
+      </c>
+      <c r="D119">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="4">
+        <v>39</v>
+      </c>
+      <c r="B120">
+        <v>3</v>
+      </c>
+      <c r="C120" t="s">
+        <v>120</v>
+      </c>
+      <c r="D120">
+        <f t="shared" ca="1" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="4">
+        <v>40</v>
+      </c>
+      <c r="B121">
+        <v>3</v>
+      </c>
+      <c r="C121" t="s">
+        <v>120</v>
+      </c>
+      <c r="D121">
+        <f t="shared" ca="1" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="4">
+        <v>1</v>
+      </c>
+      <c r="B122">
+        <v>4</v>
+      </c>
+      <c r="C122" t="s">
+        <v>121</v>
+      </c>
+      <c r="D122">
+        <f t="shared" ca="1" si="1"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="4">
+        <v>2</v>
+      </c>
+      <c r="B123">
+        <v>4</v>
+      </c>
+      <c r="C123" t="s">
+        <v>121</v>
+      </c>
+      <c r="D123">
         <f t="shared" ca="1" si="1"/>
         <v>37</v>
       </c>
-      <c r="G18">
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="4">
+        <v>3</v>
+      </c>
+      <c r="B124">
+        <v>4</v>
+      </c>
+      <c r="C124" t="s">
+        <v>121</v>
+      </c>
+      <c r="D124">
+        <f t="shared" ca="1" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="4">
+        <v>4</v>
+      </c>
+      <c r="B125">
+        <v>4</v>
+      </c>
+      <c r="C125" t="s">
+        <v>121</v>
+      </c>
+      <c r="D125">
         <f t="shared" ca="1" si="1"/>
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="4">
+        <v>5</v>
+      </c>
+      <c r="B126">
+        <v>4</v>
+      </c>
+      <c r="C126" t="s">
+        <v>121</v>
+      </c>
+      <c r="D126">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="C19">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="4">
+        <v>6</v>
+      </c>
+      <c r="B127">
+        <v>4</v>
+      </c>
+      <c r="C127" t="s">
+        <v>121</v>
+      </c>
+      <c r="D127">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="D19">
-        <f t="shared" ca="1" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="E19">
-        <f t="shared" ca="1" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="F19">
-        <f t="shared" ca="1" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="G19">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="4">
+        <v>7</v>
+      </c>
+      <c r="B128">
+        <v>4</v>
+      </c>
+      <c r="C128" t="s">
+        <v>121</v>
+      </c>
+      <c r="D128">
         <f t="shared" ca="1" si="1"/>
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <f t="shared" ca="1" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="C20">
-        <f t="shared" ca="1" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="D20">
-        <f t="shared" ca="1" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="E20">
-        <f t="shared" ca="1" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="F20">
-        <f t="shared" ca="1" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="G20">
-        <f t="shared" ca="1" si="1"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <f t="shared" ca="1" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="C21">
-        <f t="shared" ca="1" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="D21">
-        <f t="shared" ca="1" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="E21">
-        <f t="shared" ca="1" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="F21">
-        <f t="shared" ca="1" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="G21">
-        <f t="shared" ca="1" si="1"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <f t="shared" ca="1" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="C22">
-        <f t="shared" ca="1" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="D22">
-        <f t="shared" ca="1" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="E22">
-        <f t="shared" ca="1" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="F22">
-        <f t="shared" ca="1" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="G22">
-        <f t="shared" ca="1" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <f t="shared" ca="1" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="C23">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="4">
+        <v>8</v>
+      </c>
+      <c r="B129">
+        <v>4</v>
+      </c>
+      <c r="C129" t="s">
+        <v>121</v>
+      </c>
+      <c r="D129">
         <f t="shared" ca="1" si="1"/>
         <v>45</v>
       </c>
-      <c r="D23">
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="4">
+        <v>9</v>
+      </c>
+      <c r="B130">
+        <v>4</v>
+      </c>
+      <c r="C130" t="s">
+        <v>121</v>
+      </c>
+      <c r="D130">
         <f t="shared" ca="1" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="4">
+        <v>10</v>
+      </c>
+      <c r="B131">
+        <v>4</v>
+      </c>
+      <c r="C131" t="s">
+        <v>121</v>
+      </c>
+      <c r="D131">
+        <f t="shared" ref="D131:D194" ca="1" si="2">RANDBETWEEN(36, 50)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="4">
+        <v>11</v>
+      </c>
+      <c r="B132">
+        <v>4</v>
+      </c>
+      <c r="C132" t="s">
+        <v>121</v>
+      </c>
+      <c r="D132">
+        <f t="shared" ca="1" si="2"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="4">
+        <v>12</v>
+      </c>
+      <c r="B133">
+        <v>4</v>
+      </c>
+      <c r="C133" t="s">
+        <v>121</v>
+      </c>
+      <c r="D133">
+        <f t="shared" ca="1" si="2"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="4">
+        <v>13</v>
+      </c>
+      <c r="B134">
+        <v>4</v>
+      </c>
+      <c r="C134" t="s">
+        <v>121</v>
+      </c>
+      <c r="D134">
+        <f t="shared" ca="1" si="2"/>
         <v>36</v>
       </c>
-      <c r="E23">
-        <f t="shared" ca="1" si="1"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="4">
+        <v>14</v>
+      </c>
+      <c r="B135">
+        <v>4</v>
+      </c>
+      <c r="C135" t="s">
+        <v>121</v>
+      </c>
+      <c r="D135">
+        <f t="shared" ca="1" si="2"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="4">
+        <v>15</v>
+      </c>
+      <c r="B136">
+        <v>4</v>
+      </c>
+      <c r="C136" t="s">
+        <v>121</v>
+      </c>
+      <c r="D136">
+        <f t="shared" ca="1" si="2"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="4">
+        <v>16</v>
+      </c>
+      <c r="B137">
+        <v>4</v>
+      </c>
+      <c r="C137" t="s">
+        <v>121</v>
+      </c>
+      <c r="D137">
+        <f t="shared" ca="1" si="2"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="4">
+        <v>17</v>
+      </c>
+      <c r="B138">
+        <v>4</v>
+      </c>
+      <c r="C138" t="s">
+        <v>121</v>
+      </c>
+      <c r="D138">
+        <f t="shared" ca="1" si="2"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="4">
+        <v>18</v>
+      </c>
+      <c r="B139">
+        <v>4</v>
+      </c>
+      <c r="C139" t="s">
+        <v>121</v>
+      </c>
+      <c r="D139">
+        <f t="shared" ca="1" si="2"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="4">
+        <v>19</v>
+      </c>
+      <c r="B140">
+        <v>4</v>
+      </c>
+      <c r="C140" t="s">
+        <v>121</v>
+      </c>
+      <c r="D140">
+        <f t="shared" ca="1" si="2"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="4">
+        <v>20</v>
+      </c>
+      <c r="B141">
+        <v>4</v>
+      </c>
+      <c r="C141" t="s">
+        <v>121</v>
+      </c>
+      <c r="D141">
+        <f t="shared" ca="1" si="2"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="4">
+        <v>21</v>
+      </c>
+      <c r="B142">
+        <v>4</v>
+      </c>
+      <c r="C142" t="s">
+        <v>121</v>
+      </c>
+      <c r="D142">
+        <f t="shared" ca="1" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="4">
+        <v>22</v>
+      </c>
+      <c r="B143">
+        <v>4</v>
+      </c>
+      <c r="C143" t="s">
+        <v>121</v>
+      </c>
+      <c r="D143">
+        <f t="shared" ca="1" si="2"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="4">
+        <v>23</v>
+      </c>
+      <c r="B144">
+        <v>4</v>
+      </c>
+      <c r="C144" t="s">
+        <v>121</v>
+      </c>
+      <c r="D144">
+        <f t="shared" ca="1" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="4">
+        <v>24</v>
+      </c>
+      <c r="B145">
+        <v>4</v>
+      </c>
+      <c r="C145" t="s">
+        <v>121</v>
+      </c>
+      <c r="D145">
+        <f t="shared" ca="1" si="2"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="4">
+        <v>25</v>
+      </c>
+      <c r="B146">
+        <v>4</v>
+      </c>
+      <c r="C146" t="s">
+        <v>121</v>
+      </c>
+      <c r="D146">
+        <f t="shared" ca="1" si="2"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="4">
+        <v>26</v>
+      </c>
+      <c r="B147">
+        <v>4</v>
+      </c>
+      <c r="C147" t="s">
+        <v>121</v>
+      </c>
+      <c r="D147">
+        <f t="shared" ca="1" si="2"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="4">
+        <v>27</v>
+      </c>
+      <c r="B148">
+        <v>4</v>
+      </c>
+      <c r="C148" t="s">
+        <v>121</v>
+      </c>
+      <c r="D148">
+        <f t="shared" ca="1" si="2"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" s="4">
+        <v>28</v>
+      </c>
+      <c r="B149">
+        <v>4</v>
+      </c>
+      <c r="C149" t="s">
+        <v>121</v>
+      </c>
+      <c r="D149">
+        <f t="shared" ca="1" si="2"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" s="4">
+        <v>29</v>
+      </c>
+      <c r="B150">
+        <v>4</v>
+      </c>
+      <c r="C150" t="s">
+        <v>121</v>
+      </c>
+      <c r="D150">
+        <f t="shared" ca="1" si="2"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" s="4">
+        <v>30</v>
+      </c>
+      <c r="B151">
+        <v>4</v>
+      </c>
+      <c r="C151" t="s">
+        <v>121</v>
+      </c>
+      <c r="D151">
+        <f t="shared" ca="1" si="2"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" s="4">
+        <v>31</v>
+      </c>
+      <c r="B152">
+        <v>4</v>
+      </c>
+      <c r="C152" t="s">
+        <v>121</v>
+      </c>
+      <c r="D152">
+        <f t="shared" ca="1" si="2"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" s="4">
+        <v>32</v>
+      </c>
+      <c r="B153">
+        <v>4</v>
+      </c>
+      <c r="C153" t="s">
+        <v>121</v>
+      </c>
+      <c r="D153">
+        <f t="shared" ca="1" si="2"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" s="4">
+        <v>33</v>
+      </c>
+      <c r="B154">
+        <v>4</v>
+      </c>
+      <c r="C154" t="s">
+        <v>121</v>
+      </c>
+      <c r="D154">
+        <f t="shared" ca="1" si="2"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" s="4">
+        <v>34</v>
+      </c>
+      <c r="B155">
+        <v>4</v>
+      </c>
+      <c r="C155" t="s">
+        <v>121</v>
+      </c>
+      <c r="D155">
+        <f t="shared" ca="1" si="2"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" s="4">
+        <v>35</v>
+      </c>
+      <c r="B156">
+        <v>4</v>
+      </c>
+      <c r="C156" t="s">
+        <v>121</v>
+      </c>
+      <c r="D156">
+        <f t="shared" ca="1" si="2"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" s="4">
+        <v>36</v>
+      </c>
+      <c r="B157">
+        <v>4</v>
+      </c>
+      <c r="C157" t="s">
+        <v>121</v>
+      </c>
+      <c r="D157">
+        <f t="shared" ca="1" si="2"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" s="4">
+        <v>37</v>
+      </c>
+      <c r="B158">
+        <v>4</v>
+      </c>
+      <c r="C158" t="s">
+        <v>121</v>
+      </c>
+      <c r="D158">
+        <f t="shared" ca="1" si="2"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" s="4">
+        <v>38</v>
+      </c>
+      <c r="B159">
+        <v>4</v>
+      </c>
+      <c r="C159" t="s">
+        <v>121</v>
+      </c>
+      <c r="D159">
+        <f t="shared" ca="1" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" s="4">
+        <v>39</v>
+      </c>
+      <c r="B160">
+        <v>4</v>
+      </c>
+      <c r="C160" t="s">
+        <v>121</v>
+      </c>
+      <c r="D160">
+        <f t="shared" ca="1" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" s="4">
+        <v>40</v>
+      </c>
+      <c r="B161">
+        <v>4</v>
+      </c>
+      <c r="C161" t="s">
+        <v>121</v>
+      </c>
+      <c r="D161">
+        <f t="shared" ca="1" si="2"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" s="4">
+        <v>1</v>
+      </c>
+      <c r="B162">
+        <v>5</v>
+      </c>
+      <c r="C162" t="s">
+        <v>120</v>
+      </c>
+      <c r="D162">
+        <f t="shared" ca="1" si="2"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="4">
+        <v>2</v>
+      </c>
+      <c r="B163">
+        <v>5</v>
+      </c>
+      <c r="C163" t="s">
+        <v>120</v>
+      </c>
+      <c r="D163">
+        <f t="shared" ca="1" si="2"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="4">
+        <v>3</v>
+      </c>
+      <c r="B164">
+        <v>5</v>
+      </c>
+      <c r="C164" t="s">
+        <v>120</v>
+      </c>
+      <c r="D164">
+        <f t="shared" ca="1" si="2"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="4">
+        <v>4</v>
+      </c>
+      <c r="B165">
+        <v>5</v>
+      </c>
+      <c r="C165" t="s">
+        <v>120</v>
+      </c>
+      <c r="D165">
+        <f t="shared" ca="1" si="2"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" s="4">
+        <v>5</v>
+      </c>
+      <c r="B166">
+        <v>5</v>
+      </c>
+      <c r="C166" t="s">
+        <v>120</v>
+      </c>
+      <c r="D166">
+        <f t="shared" ca="1" si="2"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" s="4">
+        <v>6</v>
+      </c>
+      <c r="B167">
+        <v>5</v>
+      </c>
+      <c r="C167" t="s">
+        <v>120</v>
+      </c>
+      <c r="D167">
+        <f t="shared" ca="1" si="2"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" s="4">
+        <v>7</v>
+      </c>
+      <c r="B168">
+        <v>5</v>
+      </c>
+      <c r="C168" t="s">
+        <v>120</v>
+      </c>
+      <c r="D168">
+        <f t="shared" ca="1" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="4">
+        <v>8</v>
+      </c>
+      <c r="B169">
+        <v>5</v>
+      </c>
+      <c r="C169" t="s">
+        <v>120</v>
+      </c>
+      <c r="D169">
+        <f t="shared" ca="1" si="2"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" s="4">
+        <v>9</v>
+      </c>
+      <c r="B170">
+        <v>5</v>
+      </c>
+      <c r="C170" t="s">
+        <v>120</v>
+      </c>
+      <c r="D170">
+        <f t="shared" ca="1" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" s="4">
+        <v>10</v>
+      </c>
+      <c r="B171">
+        <v>5</v>
+      </c>
+      <c r="C171" t="s">
+        <v>120</v>
+      </c>
+      <c r="D171">
+        <f t="shared" ca="1" si="2"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" s="4">
+        <v>11</v>
+      </c>
+      <c r="B172">
+        <v>5</v>
+      </c>
+      <c r="C172" t="s">
+        <v>120</v>
+      </c>
+      <c r="D172">
+        <f t="shared" ca="1" si="2"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" s="4">
+        <v>12</v>
+      </c>
+      <c r="B173">
+        <v>5</v>
+      </c>
+      <c r="C173" t="s">
+        <v>120</v>
+      </c>
+      <c r="D173">
+        <f t="shared" ca="1" si="2"/>
         <v>41</v>
       </c>
-      <c r="F23">
-        <f t="shared" ca="1" si="1"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" s="4">
+        <v>13</v>
+      </c>
+      <c r="B174">
+        <v>5</v>
+      </c>
+      <c r="C174" t="s">
+        <v>120</v>
+      </c>
+      <c r="D174">
+        <f t="shared" ca="1" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" s="4">
+        <v>14</v>
+      </c>
+      <c r="B175">
+        <v>5</v>
+      </c>
+      <c r="C175" t="s">
+        <v>120</v>
+      </c>
+      <c r="D175">
+        <f t="shared" ca="1" si="2"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" s="4">
+        <v>15</v>
+      </c>
+      <c r="B176">
+        <v>5</v>
+      </c>
+      <c r="C176" t="s">
+        <v>120</v>
+      </c>
+      <c r="D176">
+        <f t="shared" ca="1" si="2"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" s="4">
+        <v>16</v>
+      </c>
+      <c r="B177">
+        <v>5</v>
+      </c>
+      <c r="C177" t="s">
+        <v>120</v>
+      </c>
+      <c r="D177">
+        <f t="shared" ca="1" si="2"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" s="4">
+        <v>17</v>
+      </c>
+      <c r="B178">
+        <v>5</v>
+      </c>
+      <c r="C178" t="s">
+        <v>120</v>
+      </c>
+      <c r="D178">
+        <f t="shared" ca="1" si="2"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" s="4">
+        <v>18</v>
+      </c>
+      <c r="B179">
+        <v>5</v>
+      </c>
+      <c r="C179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D179">
+        <f t="shared" ca="1" si="2"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" s="4">
+        <v>19</v>
+      </c>
+      <c r="B180">
+        <v>5</v>
+      </c>
+      <c r="C180" t="s">
+        <v>120</v>
+      </c>
+      <c r="D180">
+        <f t="shared" ca="1" si="2"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" s="4">
+        <v>20</v>
+      </c>
+      <c r="B181">
+        <v>5</v>
+      </c>
+      <c r="C181" t="s">
+        <v>120</v>
+      </c>
+      <c r="D181">
+        <f t="shared" ca="1" si="2"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" s="4">
+        <v>21</v>
+      </c>
+      <c r="B182">
+        <v>5</v>
+      </c>
+      <c r="C182" t="s">
+        <v>120</v>
+      </c>
+      <c r="D182">
+        <f t="shared" ca="1" si="2"/>
         <v>40</v>
       </c>
-      <c r="G23">
-        <f t="shared" ca="1" si="1"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" s="4">
+        <v>22</v>
+      </c>
+      <c r="B183">
+        <v>5</v>
+      </c>
+      <c r="C183" t="s">
+        <v>120</v>
+      </c>
+      <c r="D183">
+        <f t="shared" ca="1" si="2"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" s="4">
+        <v>23</v>
+      </c>
+      <c r="B184">
+        <v>5</v>
+      </c>
+      <c r="C184" t="s">
+        <v>120</v>
+      </c>
+      <c r="D184">
+        <f t="shared" ca="1" si="2"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" s="4">
+        <v>24</v>
+      </c>
+      <c r="B185">
+        <v>5</v>
+      </c>
+      <c r="C185" t="s">
+        <v>120</v>
+      </c>
+      <c r="D185">
+        <f t="shared" ca="1" si="2"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" s="4">
+        <v>25</v>
+      </c>
+      <c r="B186">
+        <v>5</v>
+      </c>
+      <c r="C186" t="s">
+        <v>120</v>
+      </c>
+      <c r="D186">
+        <f t="shared" ca="1" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" s="4">
+        <v>26</v>
+      </c>
+      <c r="B187">
+        <v>5</v>
+      </c>
+      <c r="C187" t="s">
+        <v>120</v>
+      </c>
+      <c r="D187">
+        <f t="shared" ca="1" si="2"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" s="4">
+        <v>27</v>
+      </c>
+      <c r="B188">
+        <v>5</v>
+      </c>
+      <c r="C188" t="s">
+        <v>120</v>
+      </c>
+      <c r="D188">
+        <f t="shared" ca="1" si="2"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" s="4">
+        <v>28</v>
+      </c>
+      <c r="B189">
+        <v>5</v>
+      </c>
+      <c r="C189" t="s">
+        <v>120</v>
+      </c>
+      <c r="D189">
+        <f t="shared" ca="1" si="2"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" s="4">
+        <v>29</v>
+      </c>
+      <c r="B190">
+        <v>5</v>
+      </c>
+      <c r="C190" t="s">
+        <v>120</v>
+      </c>
+      <c r="D190">
+        <f t="shared" ca="1" si="2"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" s="4">
+        <v>30</v>
+      </c>
+      <c r="B191">
+        <v>5</v>
+      </c>
+      <c r="C191" t="s">
+        <v>120</v>
+      </c>
+      <c r="D191">
+        <f t="shared" ca="1" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" s="4">
+        <v>31</v>
+      </c>
+      <c r="B192">
+        <v>5</v>
+      </c>
+      <c r="C192" t="s">
+        <v>120</v>
+      </c>
+      <c r="D192">
+        <f t="shared" ca="1" si="2"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" s="4">
+        <v>32</v>
+      </c>
+      <c r="B193">
+        <v>5</v>
+      </c>
+      <c r="C193" t="s">
+        <v>120</v>
+      </c>
+      <c r="D193">
+        <f t="shared" ca="1" si="2"/>
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" s="4">
+        <v>33</v>
+      </c>
+      <c r="B194">
+        <v>5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>120</v>
+      </c>
+      <c r="D194">
+        <f t="shared" ca="1" si="2"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" s="4">
+        <v>34</v>
+      </c>
+      <c r="B195">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>120</v>
+      </c>
+      <c r="D195">
+        <f t="shared" ref="D195:D258" ca="1" si="3">RANDBETWEEN(36, 50)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" s="4">
+        <v>35</v>
+      </c>
+      <c r="B196">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>120</v>
+      </c>
+      <c r="D196">
+        <f t="shared" ca="1" si="3"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" s="4">
+        <v>36</v>
+      </c>
+      <c r="B197">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>120</v>
+      </c>
+      <c r="D197">
+        <f t="shared" ca="1" si="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" s="4">
+        <v>37</v>
+      </c>
+      <c r="B198">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>120</v>
+      </c>
+      <c r="D198">
+        <f t="shared" ca="1" si="3"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" s="4">
+        <v>38</v>
+      </c>
+      <c r="B199">
+        <v>5</v>
+      </c>
+      <c r="C199" t="s">
+        <v>120</v>
+      </c>
+      <c r="D199">
+        <f t="shared" ca="1" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" s="4">
+        <v>39</v>
+      </c>
+      <c r="B200">
+        <v>5</v>
+      </c>
+      <c r="C200" t="s">
+        <v>120</v>
+      </c>
+      <c r="D200">
+        <f t="shared" ca="1" si="3"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" s="4">
+        <v>40</v>
+      </c>
+      <c r="B201">
+        <v>5</v>
+      </c>
+      <c r="C201" t="s">
+        <v>120</v>
+      </c>
+      <c r="D201">
+        <f t="shared" ca="1" si="3"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" s="4">
+        <v>1</v>
+      </c>
+      <c r="B202">
+        <v>6</v>
+      </c>
+      <c r="C202" t="s">
+        <v>121</v>
+      </c>
+      <c r="D202">
+        <f t="shared" ca="1" si="3"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" s="4">
+        <v>2</v>
+      </c>
+      <c r="B203">
+        <v>6</v>
+      </c>
+      <c r="C203" t="s">
+        <v>121</v>
+      </c>
+      <c r="D203">
+        <f t="shared" ca="1" si="3"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204" s="4">
+        <v>3</v>
+      </c>
+      <c r="B204">
+        <v>6</v>
+      </c>
+      <c r="C204" t="s">
+        <v>121</v>
+      </c>
+      <c r="D204">
+        <f t="shared" ca="1" si="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" s="4">
+        <v>4</v>
+      </c>
+      <c r="B205">
+        <v>6</v>
+      </c>
+      <c r="C205" t="s">
+        <v>121</v>
+      </c>
+      <c r="D205">
+        <f t="shared" ca="1" si="3"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" s="4">
+        <v>5</v>
+      </c>
+      <c r="B206">
+        <v>6</v>
+      </c>
+      <c r="C206" t="s">
+        <v>121</v>
+      </c>
+      <c r="D206">
+        <f t="shared" ca="1" si="3"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" s="4">
+        <v>6</v>
+      </c>
+      <c r="B207">
+        <v>6</v>
+      </c>
+      <c r="C207" t="s">
+        <v>121</v>
+      </c>
+      <c r="D207">
+        <f t="shared" ca="1" si="3"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" s="4">
+        <v>7</v>
+      </c>
+      <c r="B208">
+        <v>6</v>
+      </c>
+      <c r="C208" t="s">
+        <v>121</v>
+      </c>
+      <c r="D208">
+        <f t="shared" ca="1" si="3"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" s="4">
+        <v>8</v>
+      </c>
+      <c r="B209">
+        <v>6</v>
+      </c>
+      <c r="C209" t="s">
+        <v>121</v>
+      </c>
+      <c r="D209">
+        <f t="shared" ca="1" si="3"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" s="4">
+        <v>9</v>
+      </c>
+      <c r="B210">
+        <v>6</v>
+      </c>
+      <c r="C210" t="s">
+        <v>121</v>
+      </c>
+      <c r="D210">
+        <f t="shared" ca="1" si="3"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" s="4">
+        <v>10</v>
+      </c>
+      <c r="B211">
+        <v>6</v>
+      </c>
+      <c r="C211" t="s">
+        <v>121</v>
+      </c>
+      <c r="D211">
+        <f t="shared" ca="1" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" s="4">
+        <v>11</v>
+      </c>
+      <c r="B212">
+        <v>6</v>
+      </c>
+      <c r="C212" t="s">
+        <v>121</v>
+      </c>
+      <c r="D212">
+        <f t="shared" ca="1" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" s="4">
+        <v>12</v>
+      </c>
+      <c r="B213">
+        <v>6</v>
+      </c>
+      <c r="C213" t="s">
+        <v>121</v>
+      </c>
+      <c r="D213">
+        <f t="shared" ca="1" si="3"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" s="4">
+        <v>13</v>
+      </c>
+      <c r="B214">
+        <v>6</v>
+      </c>
+      <c r="C214" t="s">
+        <v>121</v>
+      </c>
+      <c r="D214">
+        <f t="shared" ca="1" si="3"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" s="4">
+        <v>14</v>
+      </c>
+      <c r="B215">
+        <v>6</v>
+      </c>
+      <c r="C215" t="s">
+        <v>121</v>
+      </c>
+      <c r="D215">
+        <f t="shared" ca="1" si="3"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" s="4">
+        <v>15</v>
+      </c>
+      <c r="B216">
+        <v>6</v>
+      </c>
+      <c r="C216" t="s">
+        <v>121</v>
+      </c>
+      <c r="D216">
+        <f t="shared" ca="1" si="3"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" s="4">
+        <v>16</v>
+      </c>
+      <c r="B217">
+        <v>6</v>
+      </c>
+      <c r="C217" t="s">
+        <v>121</v>
+      </c>
+      <c r="D217">
+        <f t="shared" ca="1" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218" s="4">
+        <v>17</v>
+      </c>
+      <c r="B218">
+        <v>6</v>
+      </c>
+      <c r="C218" t="s">
+        <v>121</v>
+      </c>
+      <c r="D218">
+        <f t="shared" ca="1" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" s="4">
+        <v>18</v>
+      </c>
+      <c r="B219">
+        <v>6</v>
+      </c>
+      <c r="C219" t="s">
+        <v>121</v>
+      </c>
+      <c r="D219">
+        <f t="shared" ca="1" si="3"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220" s="4">
+        <v>19</v>
+      </c>
+      <c r="B220">
+        <v>6</v>
+      </c>
+      <c r="C220" t="s">
+        <v>121</v>
+      </c>
+      <c r="D220">
+        <f t="shared" ca="1" si="3"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221" s="4">
+        <v>20</v>
+      </c>
+      <c r="B221">
+        <v>6</v>
+      </c>
+      <c r="C221" t="s">
+        <v>121</v>
+      </c>
+      <c r="D221">
+        <f t="shared" ca="1" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" s="4">
+        <v>21</v>
+      </c>
+      <c r="B222">
+        <v>6</v>
+      </c>
+      <c r="C222" t="s">
+        <v>121</v>
+      </c>
+      <c r="D222">
+        <f t="shared" ca="1" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" s="4">
+        <v>22</v>
+      </c>
+      <c r="B223">
+        <v>6</v>
+      </c>
+      <c r="C223" t="s">
+        <v>121</v>
+      </c>
+      <c r="D223">
+        <f t="shared" ca="1" si="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" s="4">
         <v>23</v>
       </c>
-      <c r="B24">
-        <f t="shared" ca="1" si="1"/>
+      <c r="B224">
+        <v>6</v>
+      </c>
+      <c r="C224" t="s">
+        <v>121</v>
+      </c>
+      <c r="D224">
+        <f t="shared" ca="1" si="3"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" s="4">
+        <v>24</v>
+      </c>
+      <c r="B225">
+        <v>6</v>
+      </c>
+      <c r="C225" t="s">
+        <v>121</v>
+      </c>
+      <c r="D225">
+        <f t="shared" ca="1" si="3"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" s="4">
+        <v>25</v>
+      </c>
+      <c r="B226">
+        <v>6</v>
+      </c>
+      <c r="C226" t="s">
+        <v>121</v>
+      </c>
+      <c r="D226">
+        <f t="shared" ca="1" si="3"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" s="4">
+        <v>26</v>
+      </c>
+      <c r="B227">
+        <v>6</v>
+      </c>
+      <c r="C227" t="s">
+        <v>121</v>
+      </c>
+      <c r="D227">
+        <f t="shared" ca="1" si="3"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" s="4">
+        <v>27</v>
+      </c>
+      <c r="B228">
+        <v>6</v>
+      </c>
+      <c r="C228" t="s">
+        <v>121</v>
+      </c>
+      <c r="D228">
+        <f t="shared" ca="1" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" s="4">
+        <v>28</v>
+      </c>
+      <c r="B229">
+        <v>6</v>
+      </c>
+      <c r="C229" t="s">
+        <v>121</v>
+      </c>
+      <c r="D229">
+        <f t="shared" ca="1" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" s="4">
+        <v>29</v>
+      </c>
+      <c r="B230">
+        <v>6</v>
+      </c>
+      <c r="C230" t="s">
+        <v>121</v>
+      </c>
+      <c r="D230">
+        <f t="shared" ca="1" si="3"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" s="4">
+        <v>30</v>
+      </c>
+      <c r="B231">
+        <v>6</v>
+      </c>
+      <c r="C231" t="s">
+        <v>121</v>
+      </c>
+      <c r="D231">
+        <f t="shared" ca="1" si="3"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" s="4">
+        <v>31</v>
+      </c>
+      <c r="B232">
+        <v>6</v>
+      </c>
+      <c r="C232" t="s">
+        <v>121</v>
+      </c>
+      <c r="D232">
+        <f t="shared" ca="1" si="3"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" s="4">
+        <v>32</v>
+      </c>
+      <c r="B233">
+        <v>6</v>
+      </c>
+      <c r="C233" t="s">
+        <v>121</v>
+      </c>
+      <c r="D233">
+        <f t="shared" ca="1" si="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234" s="4">
+        <v>33</v>
+      </c>
+      <c r="B234">
+        <v>6</v>
+      </c>
+      <c r="C234" t="s">
+        <v>121</v>
+      </c>
+      <c r="D234">
+        <f t="shared" ca="1" si="3"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235" s="4">
+        <v>34</v>
+      </c>
+      <c r="B235">
+        <v>6</v>
+      </c>
+      <c r="C235" t="s">
+        <v>121</v>
+      </c>
+      <c r="D235">
+        <f t="shared" ca="1" si="3"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" s="4">
         <v>35</v>
       </c>
-      <c r="C24">
-        <f t="shared" ca="1" si="1"/>
+      <c r="B236">
+        <v>6</v>
+      </c>
+      <c r="C236" t="s">
+        <v>121</v>
+      </c>
+      <c r="D236">
+        <f t="shared" ca="1" si="3"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237" s="4">
+        <v>36</v>
+      </c>
+      <c r="B237">
+        <v>6</v>
+      </c>
+      <c r="C237" t="s">
+        <v>121</v>
+      </c>
+      <c r="D237">
+        <f t="shared" ca="1" si="3"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238" s="4">
+        <v>37</v>
+      </c>
+      <c r="B238">
+        <v>6</v>
+      </c>
+      <c r="C238" t="s">
+        <v>121</v>
+      </c>
+      <c r="D238">
+        <f t="shared" ca="1" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239" s="4">
+        <v>38</v>
+      </c>
+      <c r="B239">
+        <v>6</v>
+      </c>
+      <c r="C239" t="s">
+        <v>121</v>
+      </c>
+      <c r="D239">
+        <f t="shared" ca="1" si="3"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" s="4">
+        <v>39</v>
+      </c>
+      <c r="B240">
+        <v>6</v>
+      </c>
+      <c r="C240" t="s">
+        <v>121</v>
+      </c>
+      <c r="D240">
+        <f t="shared" ca="1" si="3"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241" s="4">
+        <v>40</v>
+      </c>
+      <c r="B241">
+        <v>6</v>
+      </c>
+      <c r="C241" t="s">
+        <v>121</v>
+      </c>
+      <c r="D241">
+        <f t="shared" ca="1" si="3"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" s="4">
+        <v>1</v>
+      </c>
+      <c r="B242">
+        <v>7</v>
+      </c>
+      <c r="C242" t="s">
+        <v>120</v>
+      </c>
+      <c r="D242">
+        <f t="shared" ca="1" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243" s="4">
+        <v>2</v>
+      </c>
+      <c r="B243">
+        <v>7</v>
+      </c>
+      <c r="C243" t="s">
+        <v>120</v>
+      </c>
+      <c r="D243">
+        <f t="shared" ca="1" si="3"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244" s="4">
+        <v>3</v>
+      </c>
+      <c r="B244">
+        <v>7</v>
+      </c>
+      <c r="C244" t="s">
+        <v>120</v>
+      </c>
+      <c r="D244">
+        <f t="shared" ca="1" si="3"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245" s="4">
+        <v>4</v>
+      </c>
+      <c r="B245">
+        <v>7</v>
+      </c>
+      <c r="C245" t="s">
+        <v>120</v>
+      </c>
+      <c r="D245">
+        <f t="shared" ca="1" si="3"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246" s="4">
+        <v>5</v>
+      </c>
+      <c r="B246">
+        <v>7</v>
+      </c>
+      <c r="C246" t="s">
+        <v>120</v>
+      </c>
+      <c r="D246">
+        <f t="shared" ca="1" si="3"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247" s="4">
+        <v>6</v>
+      </c>
+      <c r="B247">
+        <v>7</v>
+      </c>
+      <c r="C247" t="s">
+        <v>120</v>
+      </c>
+      <c r="D247">
+        <f t="shared" ca="1" si="3"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248" s="4">
+        <v>7</v>
+      </c>
+      <c r="B248">
+        <v>7</v>
+      </c>
+      <c r="C248" t="s">
+        <v>120</v>
+      </c>
+      <c r="D248">
+        <f t="shared" ca="1" si="3"/>
         <v>47</v>
       </c>
-      <c r="D24">
-        <f t="shared" ca="1" si="1"/>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249" s="4">
+        <v>8</v>
+      </c>
+      <c r="B249">
+        <v>7</v>
+      </c>
+      <c r="C249" t="s">
+        <v>120</v>
+      </c>
+      <c r="D249">
+        <f t="shared" ca="1" si="3"/>
         <v>37</v>
       </c>
-      <c r="E24">
-        <f t="shared" ca="1" si="1"/>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250" s="4">
+        <v>9</v>
+      </c>
+      <c r="B250">
+        <v>7</v>
+      </c>
+      <c r="C250" t="s">
+        <v>120</v>
+      </c>
+      <c r="D250">
+        <f t="shared" ca="1" si="3"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251" s="4">
+        <v>10</v>
+      </c>
+      <c r="B251">
+        <v>7</v>
+      </c>
+      <c r="C251" t="s">
+        <v>120</v>
+      </c>
+      <c r="D251">
+        <f t="shared" ca="1" si="3"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252" s="4">
+        <v>11</v>
+      </c>
+      <c r="B252">
+        <v>7</v>
+      </c>
+      <c r="C252" t="s">
+        <v>120</v>
+      </c>
+      <c r="D252">
+        <f t="shared" ca="1" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253" s="4">
+        <v>12</v>
+      </c>
+      <c r="B253">
+        <v>7</v>
+      </c>
+      <c r="C253" t="s">
+        <v>120</v>
+      </c>
+      <c r="D253">
+        <f t="shared" ca="1" si="3"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254" s="4">
+        <v>13</v>
+      </c>
+      <c r="B254">
+        <v>7</v>
+      </c>
+      <c r="C254" t="s">
+        <v>120</v>
+      </c>
+      <c r="D254">
+        <f t="shared" ca="1" si="3"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255" s="4">
+        <v>14</v>
+      </c>
+      <c r="B255">
+        <v>7</v>
+      </c>
+      <c r="C255" t="s">
+        <v>120</v>
+      </c>
+      <c r="D255">
+        <f t="shared" ca="1" si="3"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256" s="4">
+        <v>15</v>
+      </c>
+      <c r="B256">
+        <v>7</v>
+      </c>
+      <c r="C256" t="s">
+        <v>120</v>
+      </c>
+      <c r="D256">
+        <f t="shared" ca="1" si="3"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257" s="4">
+        <v>16</v>
+      </c>
+      <c r="B257">
+        <v>7</v>
+      </c>
+      <c r="C257" t="s">
+        <v>120</v>
+      </c>
+      <c r="D257">
+        <f t="shared" ca="1" si="3"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258" s="4">
+        <v>17</v>
+      </c>
+      <c r="B258">
+        <v>7</v>
+      </c>
+      <c r="C258" t="s">
+        <v>120</v>
+      </c>
+      <c r="D258">
+        <f t="shared" ca="1" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259" s="4">
+        <v>18</v>
+      </c>
+      <c r="B259">
+        <v>7</v>
+      </c>
+      <c r="C259" t="s">
+        <v>120</v>
+      </c>
+      <c r="D259">
+        <f t="shared" ref="D259:D281" ca="1" si="4">RANDBETWEEN(36, 50)</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260" s="4">
+        <v>19</v>
+      </c>
+      <c r="B260">
+        <v>7</v>
+      </c>
+      <c r="C260" t="s">
+        <v>120</v>
+      </c>
+      <c r="D260">
+        <f t="shared" ca="1" si="4"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261" s="4">
+        <v>20</v>
+      </c>
+      <c r="B261">
+        <v>7</v>
+      </c>
+      <c r="C261" t="s">
+        <v>120</v>
+      </c>
+      <c r="D261">
+        <f t="shared" ca="1" si="4"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262" s="4">
+        <v>21</v>
+      </c>
+      <c r="B262">
+        <v>7</v>
+      </c>
+      <c r="C262" t="s">
+        <v>120</v>
+      </c>
+      <c r="D262">
+        <f t="shared" ca="1" si="4"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263" s="4">
+        <v>22</v>
+      </c>
+      <c r="B263">
+        <v>7</v>
+      </c>
+      <c r="C263" t="s">
+        <v>120</v>
+      </c>
+      <c r="D263">
+        <f t="shared" ca="1" si="4"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264" s="4">
+        <v>23</v>
+      </c>
+      <c r="B264">
+        <v>7</v>
+      </c>
+      <c r="C264" t="s">
+        <v>120</v>
+      </c>
+      <c r="D264">
+        <f t="shared" ca="1" si="4"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265" s="4">
+        <v>24</v>
+      </c>
+      <c r="B265">
+        <v>7</v>
+      </c>
+      <c r="C265" t="s">
+        <v>120</v>
+      </c>
+      <c r="D265">
+        <f t="shared" ca="1" si="4"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266" s="4">
+        <v>25</v>
+      </c>
+      <c r="B266">
+        <v>7</v>
+      </c>
+      <c r="C266" t="s">
+        <v>120</v>
+      </c>
+      <c r="D266">
+        <f t="shared" ca="1" si="4"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267" s="4">
+        <v>26</v>
+      </c>
+      <c r="B267">
+        <v>7</v>
+      </c>
+      <c r="C267" t="s">
+        <v>120</v>
+      </c>
+      <c r="D267">
+        <f t="shared" ca="1" si="4"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268" s="4">
+        <v>27</v>
+      </c>
+      <c r="B268">
+        <v>7</v>
+      </c>
+      <c r="C268" t="s">
+        <v>120</v>
+      </c>
+      <c r="D268">
+        <f t="shared" ca="1" si="4"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269" s="4">
+        <v>28</v>
+      </c>
+      <c r="B269">
+        <v>7</v>
+      </c>
+      <c r="C269" t="s">
+        <v>120</v>
+      </c>
+      <c r="D269">
+        <f t="shared" ca="1" si="4"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270" s="4">
+        <v>29</v>
+      </c>
+      <c r="B270">
+        <v>7</v>
+      </c>
+      <c r="C270" t="s">
+        <v>120</v>
+      </c>
+      <c r="D270">
+        <f t="shared" ca="1" si="4"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271" s="4">
+        <v>30</v>
+      </c>
+      <c r="B271">
+        <v>7</v>
+      </c>
+      <c r="C271" t="s">
+        <v>120</v>
+      </c>
+      <c r="D271">
+        <f t="shared" ca="1" si="4"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272" s="4">
+        <v>31</v>
+      </c>
+      <c r="B272">
+        <v>7</v>
+      </c>
+      <c r="C272" t="s">
+        <v>120</v>
+      </c>
+      <c r="D272">
+        <f t="shared" ca="1" si="4"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273" s="4">
+        <v>32</v>
+      </c>
+      <c r="B273">
+        <v>7</v>
+      </c>
+      <c r="C273" t="s">
+        <v>120</v>
+      </c>
+      <c r="D273">
+        <f t="shared" ca="1" si="4"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274" s="4">
+        <v>33</v>
+      </c>
+      <c r="B274">
+        <v>7</v>
+      </c>
+      <c r="C274" t="s">
+        <v>120</v>
+      </c>
+      <c r="D274">
+        <f t="shared" ca="1" si="4"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275" s="4">
+        <v>34</v>
+      </c>
+      <c r="B275">
+        <v>7</v>
+      </c>
+      <c r="C275" t="s">
+        <v>120</v>
+      </c>
+      <c r="D275">
+        <f t="shared" ca="1" si="4"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276" s="4">
         <v>35</v>
       </c>
-      <c r="F24">
-        <f t="shared" ca="1" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="G24">
-        <f t="shared" ca="1" si="1"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <f t="shared" ca="1" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="C25">
-        <f t="shared" ca="1" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="D25">
-        <f t="shared" ca="1" si="1"/>
+      <c r="B276">
+        <v>7</v>
+      </c>
+      <c r="C276" t="s">
+        <v>120</v>
+      </c>
+      <c r="D276">
+        <f t="shared" ca="1" si="4"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277" s="4">
+        <v>36</v>
+      </c>
+      <c r="B277">
+        <v>7</v>
+      </c>
+      <c r="C277" t="s">
+        <v>120</v>
+      </c>
+      <c r="D277">
+        <f t="shared" ca="1" si="4"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278" s="4">
+        <v>37</v>
+      </c>
+      <c r="B278">
+        <v>7</v>
+      </c>
+      <c r="C278" t="s">
+        <v>120</v>
+      </c>
+      <c r="D278">
+        <f t="shared" ca="1" si="4"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279" s="4">
+        <v>38</v>
+      </c>
+      <c r="B279">
+        <v>7</v>
+      </c>
+      <c r="C279" t="s">
+        <v>120</v>
+      </c>
+      <c r="D279">
+        <f t="shared" ca="1" si="4"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280" s="4">
+        <v>39</v>
+      </c>
+      <c r="B280">
+        <v>7</v>
+      </c>
+      <c r="C280" t="s">
+        <v>120</v>
+      </c>
+      <c r="D280">
+        <f t="shared" ca="1" si="4"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281" s="4">
         <v>40</v>
       </c>
-      <c r="E25">
-        <f t="shared" ca="1" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="F25">
-        <f t="shared" ca="1" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="G25">
-        <f t="shared" ca="1" si="1"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <f t="shared" ca="1" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="C26">
-        <f t="shared" ca="1" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="D26">
-        <f t="shared" ca="1" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="E26">
-        <f t="shared" ca="1" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="F26">
-        <f t="shared" ca="1" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="G26">
-        <f t="shared" ca="1" si="1"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <f t="shared" ca="1" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="C27">
-        <f t="shared" ca="1" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="D27">
-        <f t="shared" ca="1" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="E27">
-        <f t="shared" ca="1" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="F27">
-        <f t="shared" ca="1" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="G27">
-        <f t="shared" ca="1" si="1"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <f t="shared" ca="1" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="C28">
-        <f t="shared" ca="1" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="D28">
-        <f t="shared" ca="1" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="E28">
-        <f t="shared" ca="1" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="F28">
-        <f t="shared" ca="1" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="G28">
-        <f t="shared" ca="1" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <f t="shared" ca="1" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="C29">
-        <f t="shared" ca="1" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="D29">
-        <f t="shared" ca="1" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="E29">
-        <f t="shared" ca="1" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="F29">
-        <f t="shared" ca="1" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="G29">
-        <f t="shared" ca="1" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <f t="shared" ca="1" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="C30">
-        <f t="shared" ca="1" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="D30">
-        <f t="shared" ca="1" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="E30">
-        <f t="shared" ca="1" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="F30">
-        <f t="shared" ca="1" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="G30">
-        <f t="shared" ca="1" si="1"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <f t="shared" ca="1" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="C31">
-        <f t="shared" ca="1" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="D31">
-        <f t="shared" ca="1" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="E31">
-        <f t="shared" ca="1" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="F31">
-        <f t="shared" ca="1" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="G31">
-        <f t="shared" ca="1" si="1"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <f t="shared" ca="1" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="C32">
-        <f t="shared" ca="1" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="D32">
-        <f t="shared" ca="1" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="E32">
-        <f t="shared" ca="1" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="F32">
-        <f t="shared" ca="1" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="G32">
-        <f t="shared" ca="1" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <f t="shared" ca="1" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="C33">
-        <f t="shared" ca="1" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="D33">
-        <f t="shared" ca="1" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="E33">
-        <f t="shared" ca="1" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="F33">
-        <f t="shared" ca="1" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="G33">
-        <f t="shared" ca="1" si="1"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <f t="shared" ca="1" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="C34">
-        <f t="shared" ca="1" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="D34">
-        <f t="shared" ca="1" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="E34">
-        <f t="shared" ca="1" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="F34">
-        <f t="shared" ca="1" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="G34">
-        <f t="shared" ca="1" si="1"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <f t="shared" ca="1" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="C35">
-        <f t="shared" ca="1" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="D35">
-        <f t="shared" ca="1" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="E35">
-        <f t="shared" ca="1" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="F35">
-        <f t="shared" ca="1" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="G35">
-        <f t="shared" ca="1" si="1"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <f t="shared" ca="1" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="C36">
-        <f t="shared" ca="1" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="D36">
-        <f t="shared" ca="1" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="E36">
-        <f t="shared" ca="1" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="F36">
-        <f t="shared" ca="1" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="G36">
-        <f t="shared" ca="1" si="1"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <f t="shared" ca="1" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="C37">
-        <f t="shared" ca="1" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="D37">
-        <f t="shared" ca="1" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="E37">
-        <f t="shared" ca="1" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="F37">
-        <f t="shared" ca="1" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="G37">
-        <f t="shared" ca="1" si="1"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <f t="shared" ca="1" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="C38">
-        <f t="shared" ca="1" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="D38">
-        <f t="shared" ca="1" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="E38">
-        <f t="shared" ca="1" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="F38">
-        <f t="shared" ca="1" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="G38">
-        <f t="shared" ca="1" si="1"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <f t="shared" ca="1" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="C39">
-        <f t="shared" ca="1" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="D39">
-        <f t="shared" ca="1" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="E39">
-        <f t="shared" ca="1" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="F39">
-        <f t="shared" ca="1" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="G39">
-        <f t="shared" ca="1" si="1"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <f t="shared" ca="1" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="C40">
-        <f t="shared" ca="1" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="D40">
-        <f t="shared" ca="1" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="E40">
-        <f t="shared" ca="1" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="F40">
-        <f t="shared" ca="1" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="G40">
-        <f t="shared" ca="1" si="1"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <f t="shared" ca="1" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="C41">
-        <f t="shared" ca="1" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="D41">
-        <f t="shared" ca="1" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="E41">
-        <f t="shared" ca="1" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="F41">
-        <f t="shared" ca="1" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="G41">
-        <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+      <c r="B281">
+        <v>7</v>
+      </c>
+      <c r="C281" t="s">
+        <v>120</v>
+      </c>
+      <c r="D281">
+        <f t="shared" ca="1" si="4"/>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -3299,11 +6480,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089A3FBF-89EA-4831-9C00-D614CB0DCB78}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954FA937-3D58-4709-976D-71A145949764}">
   <dimension ref="B1:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3317,504 +6512,512 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="20"/>
+      <c r="N1" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="7"/>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+    </row>
+    <row r="2" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-    </row>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
+      <c r="C2" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="D2" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="F2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="23"/>
+      <c r="P2" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="23"/>
+      <c r="T2" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4" t="s">
+      <c r="U2" s="23"/>
+      <c r="V2" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="23"/>
+      <c r="X2" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4" t="s">
+      <c r="AA2" s="23"/>
+    </row>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B3" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="AA2" s="4"/>
-    </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
+      <c r="C3" s="14">
+        <v>0</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="20">
+      <c r="K3" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="L3" s="23"/>
+      <c r="N3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" ht="18.600000000000001" x14ac:dyDescent="0.65">
+      <c r="B4" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="14">
         <v>0</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="K3" s="4" t="s">
+      <c r="D4" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" ht="18.600000000000001" x14ac:dyDescent="0.65">
+      <c r="B5" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="N5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="N3" s="1" t="s">
+      <c r="W5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" ht="18.600000000000001" x14ac:dyDescent="0.65">
+      <c r="B6" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="O6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="R3" s="1" t="s">
+      <c r="Q6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R6" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="T3" s="1" t="s">
+      <c r="S6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="X6" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="U3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="20">
-        <v>0</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B5" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="20">
-        <v>0</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="N5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="O5" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B6" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="20">
-        <v>0</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="Z6" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AA6" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B7" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="20">
+    <row r="7" spans="2:27" ht="18.600000000000001" x14ac:dyDescent="0.65">
+      <c r="B7" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="14">
         <v>0</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>97</v>
+      <c r="D7" s="15" t="s">
+        <v>96</v>
       </c>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B8" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="20">
+    <row r="8" spans="2:27" ht="18.600000000000001" x14ac:dyDescent="0.65">
+      <c r="B8" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="14">
         <v>0</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>97</v>
+      <c r="D8" s="15" t="s">
+        <v>96</v>
       </c>
       <c r="X8" s="1"/>
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="14">
+        <v>0</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z9" s="1"/>
+    </row>
+    <row r="10" spans="2:27" ht="19.2" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="B10" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C10" s="17">
         <v>0</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z9" s="1"/>
-    </row>
-    <row r="10" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="23">
-        <v>0</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>97</v>
+      <c r="D10" s="18" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
     </row>
     <row r="14" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B16" s="21">
+        <v>43955</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="G16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="G17" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="7"/>
-    </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B16" s="8">
-        <v>43955</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="G16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="G17" t="s">
-        <v>114</v>
-      </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>99</v>
+      <c r="B18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="12">
+      <c r="B19" s="7">
         <v>0</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="6">
         <v>0</v>
       </c>
       <c r="P19" s="2"/>
       <c r="R19" s="2"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>103</v>
-      </c>
       <c r="P20" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="12">
+      <c r="B21" s="7">
         <v>0</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="6">
         <v>0</v>
       </c>
       <c r="P21" s="2"/>
       <c r="R21" s="2"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B22" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>105</v>
+      <c r="B22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="12">
+      <c r="B23" s="7">
         <v>0</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="6">
         <v>0</v>
       </c>
       <c r="P23" s="2"/>
       <c r="R23" s="2"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B24" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>106</v>
+      <c r="B24" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="13">
+      <c r="B25" s="8">
         <v>0</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="9">
         <v>0</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.3">
       <c r="P26" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.3">
       <c r="P27" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B1:D1"/>
     <mergeCell ref="N1:AA1"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
@@ -3823,6 +7026,11 @@
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/mySampleSiteGolferData.xlsx
+++ b/mySampleSiteGolferData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wwt-my.sharepoint.com/personal/thomaej_wwt_com/Documents/Desktop/Projects/mySampleSite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="148" documentId="13_ncr:1_{8BAB9691-CCD7-431A-AD44-31A1B8402131}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D3DE9DC6-EDD9-468B-87D1-AD1A49582FBA}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="13_ncr:1_{8BAB9691-CCD7-431A-AD44-31A1B8402131}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{568D3470-24B7-4074-BAAB-3DF49B7127B8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7A86AC8A-C46A-4850-ADBA-F4DA3921C8C2}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="129">
   <si>
     <t>last_name</t>
   </si>
@@ -398,9 +398,6 @@
   </si>
   <si>
     <t>score</t>
-  </si>
-  <si>
-    <t>handicap</t>
   </si>
   <si>
     <t>F</t>
@@ -615,12 +612,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -633,7 +624,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1560,7 +1557,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1587,9 +1584,7 @@
       <c r="E1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>120</v>
-      </c>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -2306,11 +2301,11 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(36, 50)</f>
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2321,11 +2316,11 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D66" ca="1" si="0">RANDBETWEEN(36, 50)</f>
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2336,11 +2331,11 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -2351,11 +2346,11 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -2366,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
@@ -2381,11 +2376,11 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -2396,11 +2391,11 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -2411,7 +2406,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
@@ -2426,11 +2421,11 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -2441,11 +2436,11 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -2456,11 +2451,11 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -2471,11 +2466,11 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -2486,11 +2481,11 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -2501,11 +2496,11 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -2516,11 +2511,11 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -2531,7 +2526,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
@@ -2546,11 +2541,11 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2561,11 +2556,11 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -2576,7 +2571,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
@@ -2591,11 +2586,11 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -2606,11 +2601,11 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -2621,11 +2616,11 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -2636,11 +2631,11 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -2651,11 +2646,11 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -2666,11 +2661,11 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -2681,11 +2676,11 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -2696,11 +2691,11 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -2711,11 +2706,11 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -2726,11 +2721,11 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2741,11 +2736,11 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -2756,11 +2751,11 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -2771,11 +2766,11 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -2786,11 +2781,11 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -2801,11 +2796,11 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -2816,11 +2811,11 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -2831,11 +2826,11 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -2846,11 +2841,11 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -2861,11 +2856,11 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -2876,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="0"/>
@@ -2891,11 +2886,11 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -2906,11 +2901,11 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -2921,11 +2916,11 @@
         <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -2936,11 +2931,11 @@
         <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -2951,11 +2946,11 @@
         <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -2966,11 +2961,11 @@
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -2981,11 +2976,11 @@
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -2996,11 +2991,11 @@
         <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -3011,11 +3006,11 @@
         <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -3026,11 +3021,11 @@
         <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -3041,11 +3036,11 @@
         <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -3056,7 +3051,7 @@
         <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="0"/>
@@ -3071,11 +3066,11 @@
         <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -3086,7 +3081,7 @@
         <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="0"/>
@@ -3101,11 +3096,11 @@
         <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -3116,11 +3111,11 @@
         <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -3131,11 +3126,11 @@
         <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -3146,11 +3141,11 @@
         <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -3161,11 +3156,11 @@
         <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -3176,11 +3171,11 @@
         <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -3191,11 +3186,11 @@
         <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -3206,11 +3201,11 @@
         <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -3221,11 +3216,11 @@
         <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -3236,11 +3231,11 @@
         <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -3251,11 +3246,11 @@
         <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -3266,11 +3261,11 @@
         <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -3281,11 +3276,11 @@
         <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D67">
         <f t="shared" ref="D67:D130" ca="1" si="1">RANDBETWEEN(36, 50)</f>
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -3296,11 +3291,11 @@
         <v>2</v>
       </c>
       <c r="C68" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -3311,11 +3306,11 @@
         <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -3326,11 +3321,11 @@
         <v>2</v>
       </c>
       <c r="C70" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -3341,11 +3336,11 @@
         <v>2</v>
       </c>
       <c r="C71" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -3356,11 +3351,11 @@
         <v>2</v>
       </c>
       <c r="C72" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -3371,11 +3366,11 @@
         <v>2</v>
       </c>
       <c r="C73" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -3386,11 +3381,11 @@
         <v>2</v>
       </c>
       <c r="C74" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -3401,11 +3396,11 @@
         <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -3416,11 +3411,11 @@
         <v>2</v>
       </c>
       <c r="C76" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -3431,11 +3426,11 @@
         <v>2</v>
       </c>
       <c r="C77" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -3446,11 +3441,11 @@
         <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -3461,11 +3456,11 @@
         <v>2</v>
       </c>
       <c r="C79" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -3476,11 +3471,11 @@
         <v>2</v>
       </c>
       <c r="C80" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -3491,11 +3486,11 @@
         <v>2</v>
       </c>
       <c r="C81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -3506,11 +3501,11 @@
         <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -3521,11 +3516,11 @@
         <v>3</v>
       </c>
       <c r="C83" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -3536,11 +3531,11 @@
         <v>3</v>
       </c>
       <c r="C84" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -3551,11 +3546,11 @@
         <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -3566,11 +3561,11 @@
         <v>3</v>
       </c>
       <c r="C86" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -3581,7 +3576,7 @@
         <v>3</v>
       </c>
       <c r="C87" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="1"/>
@@ -3596,11 +3591,11 @@
         <v>3</v>
       </c>
       <c r="C88" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -3611,11 +3606,11 @@
         <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -3626,11 +3621,11 @@
         <v>3</v>
       </c>
       <c r="C90" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -3641,11 +3636,11 @@
         <v>3</v>
       </c>
       <c r="C91" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -3656,11 +3651,11 @@
         <v>3</v>
       </c>
       <c r="C92" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -3671,11 +3666,11 @@
         <v>3</v>
       </c>
       <c r="C93" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -3686,11 +3681,11 @@
         <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -3701,11 +3696,11 @@
         <v>3</v>
       </c>
       <c r="C95" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -3716,11 +3711,11 @@
         <v>3</v>
       </c>
       <c r="C96" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -3731,11 +3726,11 @@
         <v>3</v>
       </c>
       <c r="C97" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -3746,11 +3741,11 @@
         <v>3</v>
       </c>
       <c r="C98" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -3761,11 +3756,11 @@
         <v>3</v>
       </c>
       <c r="C99" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -3776,11 +3771,11 @@
         <v>3</v>
       </c>
       <c r="C100" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -3791,11 +3786,11 @@
         <v>3</v>
       </c>
       <c r="C101" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -3806,11 +3801,11 @@
         <v>3</v>
       </c>
       <c r="C102" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D102">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -3821,11 +3816,11 @@
         <v>3</v>
       </c>
       <c r="C103" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D103">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -3836,11 +3831,11 @@
         <v>3</v>
       </c>
       <c r="C104" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D104">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -3851,11 +3846,11 @@
         <v>3</v>
       </c>
       <c r="C105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D105">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -3866,11 +3861,11 @@
         <v>3</v>
       </c>
       <c r="C106" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D106">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -3881,11 +3876,11 @@
         <v>3</v>
       </c>
       <c r="C107" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D107">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -3896,11 +3891,11 @@
         <v>3</v>
       </c>
       <c r="C108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D108">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -3911,11 +3906,11 @@
         <v>3</v>
       </c>
       <c r="C109" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D109">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -3926,11 +3921,11 @@
         <v>3</v>
       </c>
       <c r="C110" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D110">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -3941,11 +3936,11 @@
         <v>3</v>
       </c>
       <c r="C111" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D111">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -3956,11 +3951,11 @@
         <v>3</v>
       </c>
       <c r="C112" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D112">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -3971,11 +3966,11 @@
         <v>3</v>
       </c>
       <c r="C113" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D113">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -3986,11 +3981,11 @@
         <v>3</v>
       </c>
       <c r="C114" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D114">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -4001,11 +3996,11 @@
         <v>3</v>
       </c>
       <c r="C115" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D115">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -4016,11 +4011,11 @@
         <v>3</v>
       </c>
       <c r="C116" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D116">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -4031,11 +4026,11 @@
         <v>3</v>
       </c>
       <c r="C117" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D117">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -4046,11 +4041,11 @@
         <v>3</v>
       </c>
       <c r="C118" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D118">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -4061,11 +4056,11 @@
         <v>3</v>
       </c>
       <c r="C119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D119">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -4076,11 +4071,11 @@
         <v>3</v>
       </c>
       <c r="C120" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D120">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -4091,11 +4086,11 @@
         <v>3</v>
       </c>
       <c r="C121" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D121">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -4106,11 +4101,11 @@
         <v>4</v>
       </c>
       <c r="C122" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D122">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -4121,11 +4116,11 @@
         <v>4</v>
       </c>
       <c r="C123" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D123">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -4136,11 +4131,11 @@
         <v>4</v>
       </c>
       <c r="C124" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D124">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -4151,11 +4146,11 @@
         <v>4</v>
       </c>
       <c r="C125" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D125">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -4166,11 +4161,11 @@
         <v>4</v>
       </c>
       <c r="C126" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D126">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -4181,7 +4176,7 @@
         <v>4</v>
       </c>
       <c r="C127" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D127">
         <f t="shared" ca="1" si="1"/>
@@ -4196,11 +4191,11 @@
         <v>4</v>
       </c>
       <c r="C128" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D128">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -4211,11 +4206,11 @@
         <v>4</v>
       </c>
       <c r="C129" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D129">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -4226,11 +4221,11 @@
         <v>4</v>
       </c>
       <c r="C130" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D130">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -4241,11 +4236,11 @@
         <v>4</v>
       </c>
       <c r="C131" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D131">
         <f t="shared" ref="D131:D194" ca="1" si="2">RANDBETWEEN(36, 50)</f>
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -4256,11 +4251,11 @@
         <v>4</v>
       </c>
       <c r="C132" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D132">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -4271,11 +4266,11 @@
         <v>4</v>
       </c>
       <c r="C133" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D133">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -4286,11 +4281,11 @@
         <v>4</v>
       </c>
       <c r="C134" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D134">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -4301,11 +4296,11 @@
         <v>4</v>
       </c>
       <c r="C135" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D135">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -4316,11 +4311,11 @@
         <v>4</v>
       </c>
       <c r="C136" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D136">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -4331,11 +4326,11 @@
         <v>4</v>
       </c>
       <c r="C137" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D137">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -4346,11 +4341,11 @@
         <v>4</v>
       </c>
       <c r="C138" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D138">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -4361,11 +4356,11 @@
         <v>4</v>
       </c>
       <c r="C139" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D139">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -4376,11 +4371,11 @@
         <v>4</v>
       </c>
       <c r="C140" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D140">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -4391,11 +4386,11 @@
         <v>4</v>
       </c>
       <c r="C141" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D141">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -4406,11 +4401,11 @@
         <v>4</v>
       </c>
       <c r="C142" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D142">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -4421,11 +4416,11 @@
         <v>4</v>
       </c>
       <c r="C143" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D143">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -4436,11 +4431,11 @@
         <v>4</v>
       </c>
       <c r="C144" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D144">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -4451,11 +4446,11 @@
         <v>4</v>
       </c>
       <c r="C145" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D145">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -4466,11 +4461,11 @@
         <v>4</v>
       </c>
       <c r="C146" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D146">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -4481,11 +4476,11 @@
         <v>4</v>
       </c>
       <c r="C147" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D147">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -4496,11 +4491,11 @@
         <v>4</v>
       </c>
       <c r="C148" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D148">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -4511,11 +4506,11 @@
         <v>4</v>
       </c>
       <c r="C149" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D149">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -4526,7 +4521,7 @@
         <v>4</v>
       </c>
       <c r="C150" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D150">
         <f t="shared" ca="1" si="2"/>
@@ -4541,11 +4536,11 @@
         <v>4</v>
       </c>
       <c r="C151" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D151">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -4556,11 +4551,11 @@
         <v>4</v>
       </c>
       <c r="C152" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D152">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -4571,11 +4566,11 @@
         <v>4</v>
       </c>
       <c r="C153" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D153">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -4586,11 +4581,11 @@
         <v>4</v>
       </c>
       <c r="C154" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D154">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -4601,11 +4596,11 @@
         <v>4</v>
       </c>
       <c r="C155" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D155">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -4616,11 +4611,11 @@
         <v>4</v>
       </c>
       <c r="C156" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D156">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -4631,11 +4626,11 @@
         <v>4</v>
       </c>
       <c r="C157" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D157">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -4646,11 +4641,11 @@
         <v>4</v>
       </c>
       <c r="C158" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D158">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
@@ -4661,11 +4656,11 @@
         <v>4</v>
       </c>
       <c r="C159" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D159">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -4676,11 +4671,11 @@
         <v>4</v>
       </c>
       <c r="C160" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D160">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
@@ -4691,7 +4686,7 @@
         <v>4</v>
       </c>
       <c r="C161" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D161">
         <f t="shared" ca="1" si="2"/>
@@ -4706,11 +4701,11 @@
         <v>5</v>
       </c>
       <c r="C162" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D162">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
@@ -4721,7 +4716,7 @@
         <v>5</v>
       </c>
       <c r="C163" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D163">
         <f t="shared" ca="1" si="2"/>
@@ -4736,11 +4731,11 @@
         <v>5</v>
       </c>
       <c r="C164" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D164">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
@@ -4751,7 +4746,7 @@
         <v>5</v>
       </c>
       <c r="C165" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D165">
         <f t="shared" ca="1" si="2"/>
@@ -4766,11 +4761,11 @@
         <v>5</v>
       </c>
       <c r="C166" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D166">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
@@ -4781,11 +4776,11 @@
         <v>5</v>
       </c>
       <c r="C167" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D167">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
@@ -4796,11 +4791,11 @@
         <v>5</v>
       </c>
       <c r="C168" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D168">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
@@ -4811,11 +4806,11 @@
         <v>5</v>
       </c>
       <c r="C169" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D169">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
@@ -4826,11 +4821,11 @@
         <v>5</v>
       </c>
       <c r="C170" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D170">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
@@ -4841,11 +4836,11 @@
         <v>5</v>
       </c>
       <c r="C171" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D171">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
@@ -4856,11 +4851,11 @@
         <v>5</v>
       </c>
       <c r="C172" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D172">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
@@ -4871,11 +4866,11 @@
         <v>5</v>
       </c>
       <c r="C173" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D173">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -4886,11 +4881,11 @@
         <v>5</v>
       </c>
       <c r="C174" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D174">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
@@ -4901,11 +4896,11 @@
         <v>5</v>
       </c>
       <c r="C175" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D175">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
@@ -4916,11 +4911,11 @@
         <v>5</v>
       </c>
       <c r="C176" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D176">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -4931,11 +4926,11 @@
         <v>5</v>
       </c>
       <c r="C177" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D177">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -4946,11 +4941,11 @@
         <v>5</v>
       </c>
       <c r="C178" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D178">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -4961,11 +4956,11 @@
         <v>5</v>
       </c>
       <c r="C179" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D179">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -4976,11 +4971,11 @@
         <v>5</v>
       </c>
       <c r="C180" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D180">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -4991,11 +4986,11 @@
         <v>5</v>
       </c>
       <c r="C181" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D181">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -5006,11 +5001,11 @@
         <v>5</v>
       </c>
       <c r="C182" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D182">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
@@ -5021,11 +5016,11 @@
         <v>5</v>
       </c>
       <c r="C183" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D183">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -5036,11 +5031,11 @@
         <v>5</v>
       </c>
       <c r="C184" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D184">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -5051,11 +5046,11 @@
         <v>5</v>
       </c>
       <c r="C185" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D185">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -5066,11 +5061,11 @@
         <v>5</v>
       </c>
       <c r="C186" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D186">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
@@ -5081,11 +5076,11 @@
         <v>5</v>
       </c>
       <c r="C187" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D187">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
@@ -5096,11 +5091,11 @@
         <v>5</v>
       </c>
       <c r="C188" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D188">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
@@ -5111,11 +5106,11 @@
         <v>5</v>
       </c>
       <c r="C189" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D189">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -5126,11 +5121,11 @@
         <v>5</v>
       </c>
       <c r="C190" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D190">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
@@ -5141,11 +5136,11 @@
         <v>5</v>
       </c>
       <c r="C191" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D191">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
@@ -5156,11 +5151,11 @@
         <v>5</v>
       </c>
       <c r="C192" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D192">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
@@ -5171,11 +5166,11 @@
         <v>5</v>
       </c>
       <c r="C193" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D193">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
@@ -5186,11 +5181,11 @@
         <v>5</v>
       </c>
       <c r="C194" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D194">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
@@ -5201,11 +5196,11 @@
         <v>5</v>
       </c>
       <c r="C195" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D195">
         <f t="shared" ref="D195:D258" ca="1" si="3">RANDBETWEEN(36, 50)</f>
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
@@ -5216,11 +5211,11 @@
         <v>5</v>
       </c>
       <c r="C196" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D196">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
@@ -5231,11 +5226,11 @@
         <v>5</v>
       </c>
       <c r="C197" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D197">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
@@ -5246,7 +5241,7 @@
         <v>5</v>
       </c>
       <c r="C198" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D198">
         <f t="shared" ca="1" si="3"/>
@@ -5261,11 +5256,11 @@
         <v>5</v>
       </c>
       <c r="C199" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D199">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
@@ -5276,11 +5271,11 @@
         <v>5</v>
       </c>
       <c r="C200" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D200">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
@@ -5291,11 +5286,11 @@
         <v>5</v>
       </c>
       <c r="C201" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D201">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
@@ -5306,11 +5301,11 @@
         <v>6</v>
       </c>
       <c r="C202" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D202">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
@@ -5321,7 +5316,7 @@
         <v>6</v>
       </c>
       <c r="C203" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D203">
         <f t="shared" ca="1" si="3"/>
@@ -5336,11 +5331,11 @@
         <v>6</v>
       </c>
       <c r="C204" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D204">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
@@ -5351,11 +5346,11 @@
         <v>6</v>
       </c>
       <c r="C205" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D205">
         <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
@@ -5366,11 +5361,11 @@
         <v>6</v>
       </c>
       <c r="C206" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D206">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
@@ -5381,11 +5376,11 @@
         <v>6</v>
       </c>
       <c r="C207" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D207">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
@@ -5396,11 +5391,11 @@
         <v>6</v>
       </c>
       <c r="C208" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D208">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
@@ -5411,11 +5406,11 @@
         <v>6</v>
       </c>
       <c r="C209" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D209">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
@@ -5426,11 +5421,11 @@
         <v>6</v>
       </c>
       <c r="C210" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D210">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
@@ -5441,11 +5436,11 @@
         <v>6</v>
       </c>
       <c r="C211" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D211">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
@@ -5456,11 +5451,11 @@
         <v>6</v>
       </c>
       <c r="C212" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D212">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
@@ -5471,11 +5466,11 @@
         <v>6</v>
       </c>
       <c r="C213" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D213">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
@@ -5486,11 +5481,11 @@
         <v>6</v>
       </c>
       <c r="C214" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D214">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
@@ -5501,7 +5496,7 @@
         <v>6</v>
       </c>
       <c r="C215" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D215">
         <f t="shared" ca="1" si="3"/>
@@ -5516,11 +5511,11 @@
         <v>6</v>
       </c>
       <c r="C216" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D216">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
@@ -5531,11 +5526,11 @@
         <v>6</v>
       </c>
       <c r="C217" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D217">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
@@ -5546,11 +5541,11 @@
         <v>6</v>
       </c>
       <c r="C218" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D218">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
@@ -5561,11 +5556,11 @@
         <v>6</v>
       </c>
       <c r="C219" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D219">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
@@ -5576,11 +5571,11 @@
         <v>6</v>
       </c>
       <c r="C220" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D220">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
@@ -5591,11 +5586,11 @@
         <v>6</v>
       </c>
       <c r="C221" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D221">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
@@ -5606,7 +5601,7 @@
         <v>6</v>
       </c>
       <c r="C222" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D222">
         <f t="shared" ca="1" si="3"/>
@@ -5621,11 +5616,11 @@
         <v>6</v>
       </c>
       <c r="C223" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D223">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
@@ -5636,11 +5631,11 @@
         <v>6</v>
       </c>
       <c r="C224" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D224">
         <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
@@ -5651,11 +5646,11 @@
         <v>6</v>
       </c>
       <c r="C225" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D225">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
@@ -5666,11 +5661,11 @@
         <v>6</v>
       </c>
       <c r="C226" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D226">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
@@ -5681,11 +5676,11 @@
         <v>6</v>
       </c>
       <c r="C227" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D227">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
@@ -5696,11 +5691,11 @@
         <v>6</v>
       </c>
       <c r="C228" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D228">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
@@ -5711,11 +5706,11 @@
         <v>6</v>
       </c>
       <c r="C229" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D229">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
@@ -5726,11 +5721,11 @@
         <v>6</v>
       </c>
       <c r="C230" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D230">
         <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
@@ -5741,11 +5736,11 @@
         <v>6</v>
       </c>
       <c r="C231" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D231">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
@@ -5756,11 +5751,11 @@
         <v>6</v>
       </c>
       <c r="C232" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D232">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
@@ -5771,11 +5766,11 @@
         <v>6</v>
       </c>
       <c r="C233" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D233">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
@@ -5786,11 +5781,11 @@
         <v>6</v>
       </c>
       <c r="C234" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D234">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
@@ -5801,11 +5796,11 @@
         <v>6</v>
       </c>
       <c r="C235" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D235">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
@@ -5816,11 +5811,11 @@
         <v>6</v>
       </c>
       <c r="C236" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D236">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
@@ -5831,7 +5826,7 @@
         <v>6</v>
       </c>
       <c r="C237" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D237">
         <f t="shared" ca="1" si="3"/>
@@ -5846,11 +5841,11 @@
         <v>6</v>
       </c>
       <c r="C238" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D238">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
@@ -5861,11 +5856,11 @@
         <v>6</v>
       </c>
       <c r="C239" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D239">
         <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
@@ -5876,11 +5871,11 @@
         <v>6</v>
       </c>
       <c r="C240" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D240">
         <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
@@ -5891,11 +5886,11 @@
         <v>6</v>
       </c>
       <c r="C241" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D241">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
@@ -5906,11 +5901,11 @@
         <v>7</v>
       </c>
       <c r="C242" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D242">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
@@ -5921,11 +5916,11 @@
         <v>7</v>
       </c>
       <c r="C243" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D243">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
@@ -5936,11 +5931,11 @@
         <v>7</v>
       </c>
       <c r="C244" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D244">
         <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
@@ -5951,11 +5946,11 @@
         <v>7</v>
       </c>
       <c r="C245" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D245">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
@@ -5966,11 +5961,11 @@
         <v>7</v>
       </c>
       <c r="C246" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D246">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
@@ -5981,11 +5976,11 @@
         <v>7</v>
       </c>
       <c r="C247" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D247">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
@@ -5996,11 +5991,11 @@
         <v>7</v>
       </c>
       <c r="C248" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D248">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
@@ -6011,11 +6006,11 @@
         <v>7</v>
       </c>
       <c r="C249" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D249">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
@@ -6026,11 +6021,11 @@
         <v>7</v>
       </c>
       <c r="C250" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D250">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
@@ -6041,11 +6036,11 @@
         <v>7</v>
       </c>
       <c r="C251" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D251">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
@@ -6056,11 +6051,11 @@
         <v>7</v>
       </c>
       <c r="C252" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D252">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
@@ -6071,11 +6066,11 @@
         <v>7</v>
       </c>
       <c r="C253" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D253">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
@@ -6086,11 +6081,11 @@
         <v>7</v>
       </c>
       <c r="C254" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D254">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
@@ -6101,11 +6096,11 @@
         <v>7</v>
       </c>
       <c r="C255" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D255">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
@@ -6116,7 +6111,7 @@
         <v>7</v>
       </c>
       <c r="C256" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D256">
         <f t="shared" ca="1" si="3"/>
@@ -6131,11 +6126,11 @@
         <v>7</v>
       </c>
       <c r="C257" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D257">
         <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
@@ -6146,11 +6141,11 @@
         <v>7</v>
       </c>
       <c r="C258" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D258">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
@@ -6161,11 +6156,11 @@
         <v>7</v>
       </c>
       <c r="C259" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D259">
         <f t="shared" ref="D259:D281" ca="1" si="4">RANDBETWEEN(36, 50)</f>
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
@@ -6176,11 +6171,11 @@
         <v>7</v>
       </c>
       <c r="C260" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D260">
         <f t="shared" ca="1" si="4"/>
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
@@ -6191,11 +6186,11 @@
         <v>7</v>
       </c>
       <c r="C261" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D261">
         <f t="shared" ca="1" si="4"/>
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
@@ -6206,11 +6201,11 @@
         <v>7</v>
       </c>
       <c r="C262" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D262">
         <f t="shared" ca="1" si="4"/>
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
@@ -6221,11 +6216,11 @@
         <v>7</v>
       </c>
       <c r="C263" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D263">
         <f t="shared" ca="1" si="4"/>
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
@@ -6236,11 +6231,11 @@
         <v>7</v>
       </c>
       <c r="C264" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D264">
         <f t="shared" ca="1" si="4"/>
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
@@ -6251,11 +6246,11 @@
         <v>7</v>
       </c>
       <c r="C265" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D265">
         <f t="shared" ca="1" si="4"/>
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
@@ -6266,11 +6261,11 @@
         <v>7</v>
       </c>
       <c r="C266" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D266">
         <f t="shared" ca="1" si="4"/>
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
@@ -6281,11 +6276,11 @@
         <v>7</v>
       </c>
       <c r="C267" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D267">
         <f t="shared" ca="1" si="4"/>
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
@@ -6296,11 +6291,11 @@
         <v>7</v>
       </c>
       <c r="C268" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D268">
         <f t="shared" ca="1" si="4"/>
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
@@ -6311,11 +6306,11 @@
         <v>7</v>
       </c>
       <c r="C269" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D269">
         <f t="shared" ca="1" si="4"/>
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
@@ -6326,11 +6321,11 @@
         <v>7</v>
       </c>
       <c r="C270" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D270">
         <f t="shared" ca="1" si="4"/>
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
@@ -6341,11 +6336,11 @@
         <v>7</v>
       </c>
       <c r="C271" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D271">
         <f t="shared" ca="1" si="4"/>
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
@@ -6356,11 +6351,11 @@
         <v>7</v>
       </c>
       <c r="C272" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D272">
         <f t="shared" ca="1" si="4"/>
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
@@ -6371,11 +6366,11 @@
         <v>7</v>
       </c>
       <c r="C273" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D273">
         <f t="shared" ca="1" si="4"/>
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
@@ -6386,11 +6381,11 @@
         <v>7</v>
       </c>
       <c r="C274" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D274">
         <f t="shared" ca="1" si="4"/>
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
@@ -6401,11 +6396,11 @@
         <v>7</v>
       </c>
       <c r="C275" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D275">
         <f t="shared" ca="1" si="4"/>
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
@@ -6416,7 +6411,7 @@
         <v>7</v>
       </c>
       <c r="C276" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D276">
         <f t="shared" ca="1" si="4"/>
@@ -6431,11 +6426,11 @@
         <v>7</v>
       </c>
       <c r="C277" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D277">
         <f t="shared" ca="1" si="4"/>
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
@@ -6446,11 +6441,11 @@
         <v>7</v>
       </c>
       <c r="C278" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D278">
         <f t="shared" ca="1" si="4"/>
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
@@ -6461,11 +6456,11 @@
         <v>7</v>
       </c>
       <c r="C279" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D279">
         <f t="shared" ca="1" si="4"/>
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
@@ -6476,11 +6471,11 @@
         <v>7</v>
       </c>
       <c r="C280" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D280">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
@@ -6491,11 +6486,11 @@
         <v>7</v>
       </c>
       <c r="C281" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D281">
         <f t="shared" ca="1" si="4"/>
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -6518,13 +6513,13 @@
         <v>117</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -6743,16 +6738,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -6991,27 +6986,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="24"/>
-      <c r="N1" s="21" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="22"/>
+      <c r="N1" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
     </row>
     <row r="2" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
@@ -7041,34 +7036,34 @@
       <c r="L2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22" t="s">
+      <c r="O2" s="25"/>
+      <c r="P2" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22" t="s">
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22" t="s">
+      <c r="S2" s="25"/>
+      <c r="T2" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22" t="s">
+      <c r="U2" s="25"/>
+      <c r="V2" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22" t="s">
+      <c r="W2" s="25"/>
+      <c r="X2" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22" t="s">
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="AA2" s="22"/>
+      <c r="AA2" s="25"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
@@ -7080,10 +7075,10 @@
       <c r="D3" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="L3" s="22"/>
+      <c r="L3" s="25"/>
       <c r="N3" s="1" t="s">
         <v>95</v>
       </c>
@@ -7190,11 +7185,11 @@
       <c r="D5" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
       <c r="N5" s="1" t="s">
         <v>100</v>
       </c>
@@ -7339,20 +7334,20 @@
       </c>
     </row>
     <row r="11" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="H11" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
+      <c r="H11" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
     </row>
     <row r="12" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -7370,20 +7365,20 @@
       <c r="N14" s="4"/>
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="24"/>
+      <c r="C15" s="22"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B16" s="25">
+      <c r="B16" s="23">
         <v>43955</v>
       </c>
-      <c r="C16" s="26"/>
+      <c r="C16" s="24"/>
       <c r="G16" t="s">
         <v>108</v>
       </c>
@@ -7513,12 +7508,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="H11:L12"/>
     <mergeCell ref="N1:AA1"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
@@ -7527,6 +7516,12 @@
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="H11:L12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/mySampleSiteGolferData.xlsx
+++ b/mySampleSiteGolferData.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wwt-my.sharepoint.com/personal/thomaej_wwt_com/Documents/Desktop/Projects/mySampleSite/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\mySampleSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="149" documentId="13_ncr:1_{8BAB9691-CCD7-431A-AD44-31A1B8402131}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{568D3470-24B7-4074-BAAB-3DF49B7127B8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43F93E9-9DBB-4107-9C6B-9ACD55238106}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7A86AC8A-C46A-4850-ADBA-F4DA3921C8C2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{7A86AC8A-C46A-4850-ADBA-F4DA3921C8C2}"/>
   </bookViews>
   <sheets>
     <sheet name="People" sheetId="1" r:id="rId1"/>
     <sheet name="Scores" sheetId="2" r:id="rId2"/>
-    <sheet name="Skins" sheetId="5" r:id="rId3"/>
-    <sheet name="CTP" sheetId="6" r:id="rId4"/>
-    <sheet name="Teams" sheetId="4" r:id="rId5"/>
-    <sheet name="Design Notes" sheetId="3" r:id="rId6"/>
+    <sheet name="Teams" sheetId="4" r:id="rId3"/>
+    <sheet name="Skins" sheetId="5" r:id="rId4"/>
+    <sheet name="Schedule" sheetId="7" r:id="rId5"/>
+    <sheet name="CTP" sheetId="6" r:id="rId6"/>
+    <sheet name="Design Notes" sheetId="3" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="152">
   <si>
     <t>last_name</t>
   </si>
@@ -425,6 +426,75 @@
   </si>
   <si>
     <t>I want my db to automatically update with the most recent version of data from this workbook. Possible Python scripting solution</t>
+  </si>
+  <si>
+    <t>total_points</t>
+  </si>
+  <si>
+    <t>week1</t>
+  </si>
+  <si>
+    <t>week2</t>
+  </si>
+  <si>
+    <t>week3</t>
+  </si>
+  <si>
+    <t>week4</t>
+  </si>
+  <si>
+    <t>week5</t>
+  </si>
+  <si>
+    <t>week6</t>
+  </si>
+  <si>
+    <t>week7</t>
+  </si>
+  <si>
+    <t>week8</t>
+  </si>
+  <si>
+    <t>week9</t>
+  </si>
+  <si>
+    <t>week10</t>
+  </si>
+  <si>
+    <t>week11</t>
+  </si>
+  <si>
+    <t>week12</t>
+  </si>
+  <si>
+    <t>week13</t>
+  </si>
+  <si>
+    <t>week14</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
+  </si>
+  <si>
+    <t>team_id</t>
   </si>
 </sst>
 </file>
@@ -554,7 +624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -612,6 +682,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -624,13 +703,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1556,7 +1629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{241A1EB0-0A74-43CF-AD7C-C2D5CDE6A973}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -2305,7 +2378,7 @@
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(36, 50)</f>
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2335,7 +2408,7 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -2350,7 +2423,7 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -2365,7 +2438,7 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -2380,7 +2453,7 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -2395,7 +2468,7 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -2410,7 +2483,7 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -2425,7 +2498,7 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -2440,7 +2513,7 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -2455,7 +2528,7 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -2470,7 +2543,7 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -2485,7 +2558,7 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -2515,7 +2588,7 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -2530,7 +2603,7 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -2545,7 +2618,7 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2560,7 +2633,7 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -2575,7 +2648,7 @@
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -2590,7 +2663,7 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -2620,7 +2693,7 @@
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -2635,7 +2708,7 @@
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -2650,7 +2723,7 @@
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -2680,7 +2753,7 @@
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -2695,7 +2768,7 @@
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -2710,7 +2783,7 @@
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -2725,7 +2798,7 @@
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2740,7 +2813,7 @@
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -2755,7 +2828,7 @@
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -2770,7 +2843,7 @@
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -2785,7 +2858,7 @@
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -2800,7 +2873,7 @@
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -2815,7 +2888,7 @@
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -2830,7 +2903,7 @@
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -2845,7 +2918,7 @@
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -2860,7 +2933,7 @@
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -2875,7 +2948,7 @@
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -2905,7 +2978,7 @@
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -2920,7 +2993,7 @@
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -2935,7 +3008,7 @@
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -2950,7 +3023,7 @@
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -2965,7 +3038,7 @@
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -2980,7 +3053,7 @@
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -2995,7 +3068,7 @@
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -3040,7 +3113,7 @@
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -3055,7 +3128,7 @@
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -3070,7 +3143,7 @@
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -3085,7 +3158,7 @@
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -3100,7 +3173,7 @@
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -3115,7 +3188,7 @@
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -3130,7 +3203,7 @@
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -3145,7 +3218,7 @@
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -3160,7 +3233,7 @@
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -3175,7 +3248,7 @@
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -3190,7 +3263,7 @@
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -3205,7 +3278,7 @@
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -3220,7 +3293,7 @@
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -3235,7 +3308,7 @@
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -3250,7 +3323,7 @@
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -3265,7 +3338,7 @@
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -3280,7 +3353,7 @@
       </c>
       <c r="D67">
         <f t="shared" ref="D67:D130" ca="1" si="1">RANDBETWEEN(36, 50)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -3295,7 +3368,7 @@
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -3310,7 +3383,7 @@
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -3340,7 +3413,7 @@
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -3355,7 +3428,7 @@
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -3370,7 +3443,7 @@
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -3385,7 +3458,7 @@
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -3400,7 +3473,7 @@
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -3415,7 +3488,7 @@
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -3430,7 +3503,7 @@
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -3445,7 +3518,7 @@
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -3460,7 +3533,7 @@
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -3475,7 +3548,7 @@
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -3490,7 +3563,7 @@
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -3505,7 +3578,7 @@
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -3520,7 +3593,7 @@
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -3535,7 +3608,7 @@
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -3550,7 +3623,7 @@
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -3580,7 +3653,7 @@
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -3595,7 +3668,7 @@
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -3610,7 +3683,7 @@
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -3625,7 +3698,7 @@
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -3640,7 +3713,7 @@
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -3655,7 +3728,7 @@
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -3670,7 +3743,7 @@
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -3685,7 +3758,7 @@
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -3700,7 +3773,7 @@
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -3715,7 +3788,7 @@
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -3730,7 +3803,7 @@
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -3745,7 +3818,7 @@
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -3760,7 +3833,7 @@
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -3775,7 +3848,7 @@
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -3790,7 +3863,7 @@
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -3805,7 +3878,7 @@
       </c>
       <c r="D102">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -3820,7 +3893,7 @@
       </c>
       <c r="D103">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -3835,7 +3908,7 @@
       </c>
       <c r="D104">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -3850,7 +3923,7 @@
       </c>
       <c r="D105">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -3865,7 +3938,7 @@
       </c>
       <c r="D106">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -3880,7 +3953,7 @@
       </c>
       <c r="D107">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -3925,7 +3998,7 @@
       </c>
       <c r="D110">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -3940,7 +4013,7 @@
       </c>
       <c r="D111">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -3955,7 +4028,7 @@
       </c>
       <c r="D112">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -3985,7 +4058,7 @@
       </c>
       <c r="D114">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -4000,7 +4073,7 @@
       </c>
       <c r="D115">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -4015,7 +4088,7 @@
       </c>
       <c r="D116">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -4030,7 +4103,7 @@
       </c>
       <c r="D117">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -4045,7 +4118,7 @@
       </c>
       <c r="D118">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -4060,7 +4133,7 @@
       </c>
       <c r="D119">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -4075,7 +4148,7 @@
       </c>
       <c r="D120">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -4090,7 +4163,7 @@
       </c>
       <c r="D121">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -4105,7 +4178,7 @@
       </c>
       <c r="D122">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -4120,7 +4193,7 @@
       </c>
       <c r="D123">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -4135,7 +4208,7 @@
       </c>
       <c r="D124">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -4150,7 +4223,7 @@
       </c>
       <c r="D125">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -4165,7 +4238,7 @@
       </c>
       <c r="D126">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -4180,7 +4253,7 @@
       </c>
       <c r="D127">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -4195,7 +4268,7 @@
       </c>
       <c r="D128">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -4210,7 +4283,7 @@
       </c>
       <c r="D129">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -4225,7 +4298,7 @@
       </c>
       <c r="D130">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -4240,7 +4313,7 @@
       </c>
       <c r="D131">
         <f t="shared" ref="D131:D194" ca="1" si="2">RANDBETWEEN(36, 50)</f>
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -4255,7 +4328,7 @@
       </c>
       <c r="D132">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -4270,7 +4343,7 @@
       </c>
       <c r="D133">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -4285,7 +4358,7 @@
       </c>
       <c r="D134">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -4300,7 +4373,7 @@
       </c>
       <c r="D135">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -4330,7 +4403,7 @@
       </c>
       <c r="D137">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -4345,7 +4418,7 @@
       </c>
       <c r="D138">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -4360,7 +4433,7 @@
       </c>
       <c r="D139">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -4375,7 +4448,7 @@
       </c>
       <c r="D140">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -4390,7 +4463,7 @@
       </c>
       <c r="D141">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -4405,7 +4478,7 @@
       </c>
       <c r="D142">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -4435,7 +4508,7 @@
       </c>
       <c r="D144">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -4450,7 +4523,7 @@
       </c>
       <c r="D145">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -4465,7 +4538,7 @@
       </c>
       <c r="D146">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -4480,7 +4553,7 @@
       </c>
       <c r="D147">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -4495,7 +4568,7 @@
       </c>
       <c r="D148">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -4510,7 +4583,7 @@
       </c>
       <c r="D149">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -4525,7 +4598,7 @@
       </c>
       <c r="D150">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -4540,7 +4613,7 @@
       </c>
       <c r="D151">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -4555,7 +4628,7 @@
       </c>
       <c r="D152">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -4570,7 +4643,7 @@
       </c>
       <c r="D153">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -4585,7 +4658,7 @@
       </c>
       <c r="D154">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -4600,7 +4673,7 @@
       </c>
       <c r="D155">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -4615,7 +4688,7 @@
       </c>
       <c r="D156">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -4645,7 +4718,7 @@
       </c>
       <c r="D158">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
@@ -4660,7 +4733,7 @@
       </c>
       <c r="D159">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -4675,7 +4748,7 @@
       </c>
       <c r="D160">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
@@ -4690,7 +4763,7 @@
       </c>
       <c r="D161">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
@@ -4705,7 +4778,7 @@
       </c>
       <c r="D162">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
@@ -4720,7 +4793,7 @@
       </c>
       <c r="D163">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
@@ -4735,7 +4808,7 @@
       </c>
       <c r="D164">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
@@ -4750,7 +4823,7 @@
       </c>
       <c r="D165">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
@@ -4765,7 +4838,7 @@
       </c>
       <c r="D166">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
@@ -4780,7 +4853,7 @@
       </c>
       <c r="D167">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
@@ -4795,7 +4868,7 @@
       </c>
       <c r="D168">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
@@ -4810,7 +4883,7 @@
       </c>
       <c r="D169">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
@@ -4825,7 +4898,7 @@
       </c>
       <c r="D170">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
@@ -4840,7 +4913,7 @@
       </c>
       <c r="D171">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
@@ -4855,7 +4928,7 @@
       </c>
       <c r="D172">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
@@ -4870,7 +4943,7 @@
       </c>
       <c r="D173">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -4885,7 +4958,7 @@
       </c>
       <c r="D174">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
@@ -4900,7 +4973,7 @@
       </c>
       <c r="D175">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
@@ -4915,7 +4988,7 @@
       </c>
       <c r="D176">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -4930,7 +5003,7 @@
       </c>
       <c r="D177">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -4945,7 +5018,7 @@
       </c>
       <c r="D178">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -4960,7 +5033,7 @@
       </c>
       <c r="D179">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -4975,7 +5048,7 @@
       </c>
       <c r="D180">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -4990,7 +5063,7 @@
       </c>
       <c r="D181">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -5005,7 +5078,7 @@
       </c>
       <c r="D182">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
@@ -5020,7 +5093,7 @@
       </c>
       <c r="D183">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -5035,7 +5108,7 @@
       </c>
       <c r="D184">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -5050,7 +5123,7 @@
       </c>
       <c r="D185">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -5065,7 +5138,7 @@
       </c>
       <c r="D186">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
@@ -5080,7 +5153,7 @@
       </c>
       <c r="D187">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
@@ -5095,7 +5168,7 @@
       </c>
       <c r="D188">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
@@ -5110,7 +5183,7 @@
       </c>
       <c r="D189">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -5125,7 +5198,7 @@
       </c>
       <c r="D190">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
@@ -5140,7 +5213,7 @@
       </c>
       <c r="D191">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
@@ -5155,7 +5228,7 @@
       </c>
       <c r="D192">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
@@ -5170,7 +5243,7 @@
       </c>
       <c r="D193">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
@@ -5185,7 +5258,7 @@
       </c>
       <c r="D194">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
@@ -5200,7 +5273,7 @@
       </c>
       <c r="D195">
         <f t="shared" ref="D195:D258" ca="1" si="3">RANDBETWEEN(36, 50)</f>
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
@@ -5215,7 +5288,7 @@
       </c>
       <c r="D196">
         <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
@@ -5230,7 +5303,7 @@
       </c>
       <c r="D197">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
@@ -5245,7 +5318,7 @@
       </c>
       <c r="D198">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
@@ -5260,7 +5333,7 @@
       </c>
       <c r="D199">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
@@ -5275,7 +5348,7 @@
       </c>
       <c r="D200">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
@@ -5290,7 +5363,7 @@
       </c>
       <c r="D201">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
@@ -5305,7 +5378,7 @@
       </c>
       <c r="D202">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
@@ -5320,7 +5393,7 @@
       </c>
       <c r="D203">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
@@ -5335,7 +5408,7 @@
       </c>
       <c r="D204">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
@@ -5350,7 +5423,7 @@
       </c>
       <c r="D205">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
@@ -5380,7 +5453,7 @@
       </c>
       <c r="D207">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
@@ -5395,7 +5468,7 @@
       </c>
       <c r="D208">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
@@ -5425,7 +5498,7 @@
       </c>
       <c r="D210">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
@@ -5440,7 +5513,7 @@
       </c>
       <c r="D211">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
@@ -5470,7 +5543,7 @@
       </c>
       <c r="D213">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
@@ -5485,7 +5558,7 @@
       </c>
       <c r="D214">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
@@ -5500,7 +5573,7 @@
       </c>
       <c r="D215">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
@@ -5515,7 +5588,7 @@
       </c>
       <c r="D216">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
@@ -5530,7 +5603,7 @@
       </c>
       <c r="D217">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
@@ -5545,7 +5618,7 @@
       </c>
       <c r="D218">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
@@ -5560,7 +5633,7 @@
       </c>
       <c r="D219">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
@@ -5575,7 +5648,7 @@
       </c>
       <c r="D220">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
@@ -5590,7 +5663,7 @@
       </c>
       <c r="D221">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
@@ -5605,7 +5678,7 @@
       </c>
       <c r="D222">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
@@ -5620,7 +5693,7 @@
       </c>
       <c r="D223">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
@@ -5635,7 +5708,7 @@
       </c>
       <c r="D224">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
@@ -5650,7 +5723,7 @@
       </c>
       <c r="D225">
         <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
@@ -5665,7 +5738,7 @@
       </c>
       <c r="D226">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
@@ -5680,7 +5753,7 @@
       </c>
       <c r="D227">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
@@ -5695,7 +5768,7 @@
       </c>
       <c r="D228">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
@@ -5710,7 +5783,7 @@
       </c>
       <c r="D229">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
@@ -5725,7 +5798,7 @@
       </c>
       <c r="D230">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
@@ -5740,7 +5813,7 @@
       </c>
       <c r="D231">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
@@ -5755,7 +5828,7 @@
       </c>
       <c r="D232">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
@@ -5770,7 +5843,7 @@
       </c>
       <c r="D233">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
@@ -5785,7 +5858,7 @@
       </c>
       <c r="D234">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
@@ -5800,7 +5873,7 @@
       </c>
       <c r="D235">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
@@ -5815,7 +5888,7 @@
       </c>
       <c r="D236">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
@@ -5830,7 +5903,7 @@
       </c>
       <c r="D237">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
@@ -5845,7 +5918,7 @@
       </c>
       <c r="D238">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
@@ -5860,7 +5933,7 @@
       </c>
       <c r="D239">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
@@ -5875,7 +5948,7 @@
       </c>
       <c r="D240">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
@@ -5890,7 +5963,7 @@
       </c>
       <c r="D241">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
@@ -5905,7 +5978,7 @@
       </c>
       <c r="D242">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
@@ -5920,7 +5993,7 @@
       </c>
       <c r="D243">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
@@ -5935,7 +6008,7 @@
       </c>
       <c r="D244">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
@@ -5950,7 +6023,7 @@
       </c>
       <c r="D245">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
@@ -5980,7 +6053,7 @@
       </c>
       <c r="D247">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
@@ -5995,7 +6068,7 @@
       </c>
       <c r="D248">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
@@ -6025,7 +6098,7 @@
       </c>
       <c r="D250">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
@@ -6040,7 +6113,7 @@
       </c>
       <c r="D251">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
@@ -6070,7 +6143,7 @@
       </c>
       <c r="D253">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
@@ -6085,7 +6158,7 @@
       </c>
       <c r="D254">
         <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
@@ -6100,7 +6173,7 @@
       </c>
       <c r="D255">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
@@ -6115,7 +6188,7 @@
       </c>
       <c r="D256">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
@@ -6130,7 +6203,7 @@
       </c>
       <c r="D257">
         <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
@@ -6145,7 +6218,7 @@
       </c>
       <c r="D258">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
@@ -6160,7 +6233,7 @@
       </c>
       <c r="D259">
         <f t="shared" ref="D259:D281" ca="1" si="4">RANDBETWEEN(36, 50)</f>
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
@@ -6175,7 +6248,7 @@
       </c>
       <c r="D260">
         <f t="shared" ca="1" si="4"/>
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
@@ -6190,7 +6263,7 @@
       </c>
       <c r="D261">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
@@ -6205,7 +6278,7 @@
       </c>
       <c r="D262">
         <f t="shared" ca="1" si="4"/>
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
@@ -6220,7 +6293,7 @@
       </c>
       <c r="D263">
         <f t="shared" ca="1" si="4"/>
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
@@ -6235,7 +6308,7 @@
       </c>
       <c r="D264">
         <f t="shared" ca="1" si="4"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
@@ -6250,7 +6323,7 @@
       </c>
       <c r="D265">
         <f t="shared" ca="1" si="4"/>
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
@@ -6265,7 +6338,7 @@
       </c>
       <c r="D266">
         <f t="shared" ca="1" si="4"/>
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
@@ -6280,7 +6353,7 @@
       </c>
       <c r="D267">
         <f t="shared" ca="1" si="4"/>
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
@@ -6295,7 +6368,7 @@
       </c>
       <c r="D268">
         <f t="shared" ca="1" si="4"/>
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
@@ -6310,7 +6383,7 @@
       </c>
       <c r="D269">
         <f t="shared" ca="1" si="4"/>
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
@@ -6325,7 +6398,7 @@
       </c>
       <c r="D270">
         <f t="shared" ca="1" si="4"/>
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
@@ -6340,7 +6413,7 @@
       </c>
       <c r="D271">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
@@ -6370,7 +6443,7 @@
       </c>
       <c r="D273">
         <f t="shared" ca="1" si="4"/>
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
@@ -6400,7 +6473,7 @@
       </c>
       <c r="D275">
         <f t="shared" ca="1" si="4"/>
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
@@ -6415,7 +6488,7 @@
       </c>
       <c r="D276">
         <f t="shared" ca="1" si="4"/>
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
@@ -6430,7 +6503,7 @@
       </c>
       <c r="D277">
         <f t="shared" ca="1" si="4"/>
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
@@ -6460,7 +6533,7 @@
       </c>
       <c r="D279">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
@@ -6475,7 +6548,7 @@
       </c>
       <c r="D280">
         <f t="shared" ca="1" si="4"/>
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
@@ -6490,7 +6563,7 @@
       </c>
       <c r="D281">
         <f t="shared" ca="1" si="4"/>
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -6499,6 +6572,456 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089A3FBF-89EA-4831-9C00-D614CB0DCB78}">
+  <dimension ref="A1:Q8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2">
+        <f>SUM(D2:Q2)</f>
+        <v>264</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>18</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <v>22</v>
+      </c>
+      <c r="J2">
+        <v>24</v>
+      </c>
+      <c r="K2">
+        <v>26</v>
+      </c>
+      <c r="L2">
+        <v>24</v>
+      </c>
+      <c r="M2">
+        <v>22</v>
+      </c>
+      <c r="N2">
+        <v>18</v>
+      </c>
+      <c r="O2">
+        <v>18</v>
+      </c>
+      <c r="P2">
+        <v>16</v>
+      </c>
+      <c r="Q2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C8" si="0">SUM(D3:Q3)</f>
+        <v>240</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>19</v>
+      </c>
+      <c r="F3">
+        <v>18</v>
+      </c>
+      <c r="G3">
+        <v>23</v>
+      </c>
+      <c r="H3">
+        <v>16</v>
+      </c>
+      <c r="I3">
+        <v>25</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <v>18</v>
+      </c>
+      <c r="L3">
+        <v>19</v>
+      </c>
+      <c r="M3">
+        <v>14</v>
+      </c>
+      <c r="N3">
+        <v>15</v>
+      </c>
+      <c r="O3">
+        <v>18</v>
+      </c>
+      <c r="P3">
+        <v>18</v>
+      </c>
+      <c r="Q3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>246</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>17</v>
+      </c>
+      <c r="I4">
+        <v>14</v>
+      </c>
+      <c r="J4">
+        <v>28</v>
+      </c>
+      <c r="K4">
+        <v>18</v>
+      </c>
+      <c r="L4">
+        <v>12</v>
+      </c>
+      <c r="M4">
+        <v>18</v>
+      </c>
+      <c r="N4">
+        <v>18</v>
+      </c>
+      <c r="O4">
+        <v>20</v>
+      </c>
+      <c r="P4">
+        <v>18</v>
+      </c>
+      <c r="Q4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>232</v>
+      </c>
+      <c r="D5">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>19</v>
+      </c>
+      <c r="G5">
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <v>19</v>
+      </c>
+      <c r="I5">
+        <v>11</v>
+      </c>
+      <c r="J5">
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>17</v>
+      </c>
+      <c r="M5">
+        <v>18</v>
+      </c>
+      <c r="N5">
+        <v>16</v>
+      </c>
+      <c r="O5">
+        <v>19</v>
+      </c>
+      <c r="P5">
+        <v>19</v>
+      </c>
+      <c r="Q5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+      <c r="D6">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>21</v>
+      </c>
+      <c r="G6">
+        <v>13</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>18</v>
+      </c>
+      <c r="J6">
+        <v>18</v>
+      </c>
+      <c r="K6">
+        <v>18</v>
+      </c>
+      <c r="L6">
+        <v>21</v>
+      </c>
+      <c r="M6">
+        <v>18</v>
+      </c>
+      <c r="N6">
+        <v>21</v>
+      </c>
+      <c r="O6">
+        <v>17</v>
+      </c>
+      <c r="P6">
+        <v>17</v>
+      </c>
+      <c r="Q6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="D7">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>22</v>
+      </c>
+      <c r="F7">
+        <v>17</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>26</v>
+      </c>
+      <c r="I7">
+        <v>18</v>
+      </c>
+      <c r="J7">
+        <v>17</v>
+      </c>
+      <c r="K7">
+        <v>17</v>
+      </c>
+      <c r="L7">
+        <v>18</v>
+      </c>
+      <c r="M7">
+        <v>18</v>
+      </c>
+      <c r="N7">
+        <v>18</v>
+      </c>
+      <c r="O7">
+        <v>16</v>
+      </c>
+      <c r="P7">
+        <v>20</v>
+      </c>
+      <c r="Q7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+      <c r="D8">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>17</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>18</v>
+      </c>
+      <c r="H8">
+        <v>18</v>
+      </c>
+      <c r="I8">
+        <v>18</v>
+      </c>
+      <c r="J8">
+        <v>19</v>
+      </c>
+      <c r="K8">
+        <v>19</v>
+      </c>
+      <c r="L8">
+        <v>15</v>
+      </c>
+      <c r="M8">
+        <v>18</v>
+      </c>
+      <c r="N8">
+        <v>20</v>
+      </c>
+      <c r="O8">
+        <v>18</v>
+      </c>
+      <c r="P8">
+        <v>18</v>
+      </c>
+      <c r="Q8">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63771C1F-3D30-44B1-BE0A-26258F613E57}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -6726,7 +7249,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4347D71-BA52-4FB3-B7B9-97F086267884}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C9F887-657C-4A07-ACDB-019072A57AF8}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -6909,70 +7450,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089A3FBF-89EA-4831-9C00-D614CB0DCB78}">
-  <dimension ref="A1:A8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954FA937-3D58-4709-976D-71A145949764}">
   <dimension ref="B1:AA27"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6986,27 +7469,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="22"/>
-      <c r="N1" s="27" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="25"/>
+      <c r="N1" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
     </row>
     <row r="2" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
@@ -7036,34 +7519,34 @@
       <c r="L2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="N2" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25" t="s">
+      <c r="O2" s="23"/>
+      <c r="P2" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25" t="s">
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25" t="s">
+      <c r="S2" s="23"/>
+      <c r="T2" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25" t="s">
+      <c r="U2" s="23"/>
+      <c r="V2" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25" t="s">
+      <c r="W2" s="23"/>
+      <c r="X2" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25" t="s">
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="AA2" s="25"/>
+      <c r="AA2" s="23"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
@@ -7075,10 +7558,10 @@
       <c r="D3" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="L3" s="25"/>
+      <c r="L3" s="23"/>
       <c r="N3" s="1" t="s">
         <v>95</v>
       </c>
@@ -7185,11 +7668,11 @@
       <c r="D5" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
       <c r="N5" s="1" t="s">
         <v>100</v>
       </c>
@@ -7308,7 +7791,34 @@
       <c r="D8" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="X8" s="1"/>
+      <c r="N8" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA8" s="23"/>
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
@@ -7320,7 +7830,48 @@
       <c r="D9" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="Z9" s="1"/>
+      <c r="N9" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="P9" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q9" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="R9" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="S9" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="T9" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="U9" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="V9" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="W9" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="X9" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y9" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z9" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA9" s="21" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="10" spans="2:27" ht="19.2" thickBot="1" x14ac:dyDescent="0.7">
       <c r="B10" s="16" t="s">
@@ -7332,22 +7883,148 @@
       <c r="D10" s="18" t="s">
         <v>96</v>
       </c>
+      <c r="N10" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="P10" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q10" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="R10" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="S10" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="T10" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="U10" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="V10" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="W10" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="X10" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y10" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z10" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA10" s="21" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="11" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="N11" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="P11" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q11" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="R11" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="S11" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="T11" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="U11" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="V11" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="W11" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="X11" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y11" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z11" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA11" s="21" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="12" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="N12" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="P12" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q12" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="R12" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="S12" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="T12" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="U12" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="V12" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="W12" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="X12" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y12" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z12" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA12" s="21" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -7365,20 +8042,20 @@
       <c r="N14" s="4"/>
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="22"/>
+      <c r="C15" s="25"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B16" s="23">
+      <c r="B16" s="26">
         <v>43955</v>
       </c>
-      <c r="C16" s="24"/>
+      <c r="C16" s="27"/>
       <c r="G16" t="s">
         <v>108</v>
       </c>
@@ -7507,7 +8184,20 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="21">
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="H11:L12"/>
     <mergeCell ref="N1:AA1"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
@@ -7516,12 +8206,6 @@
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="H11:L12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
